--- a/Stocks/FSLY/FSLY_HighLow.xlsx
+++ b/Stocks/FSLY/FSLY_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>62.90999984741211</v>
+        <v>68</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>68.01000213623047</v>
       </c>
       <c r="C2">
-        <v>62.34999847412109</v>
+        <v>65.86000061035156</v>
       </c>
       <c r="D2">
-        <v>65.44000244140625</v>
+        <v>67.86000061035156</v>
       </c>
       <c r="E2">
-        <v>65.44000244140625</v>
+        <v>67.86000061035156</v>
       </c>
       <c r="F2">
-        <v>3889500</v>
+        <v>2568000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>65.87000274658203</v>
+        <v>66.54000091552734</v>
       </c>
       <c r="B3">
-        <v>66.90000152587891</v>
+        <v>69.08000183105469</v>
       </c>
       <c r="C3">
-        <v>62.7599983215332</v>
+        <v>66.05999755859375</v>
       </c>
       <c r="D3">
-        <v>66.16000366210938</v>
+        <v>68.91999816894531</v>
       </c>
       <c r="E3">
-        <v>66.16000366210938</v>
+        <v>68.91999816894531</v>
       </c>
       <c r="F3">
-        <v>2573600</v>
+        <v>3345200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>65.31999969482422</v>
+        <v>69.55000305175781</v>
       </c>
       <c r="B4">
-        <v>66.31999969482422</v>
+        <v>70.58999633789062</v>
       </c>
       <c r="C4">
-        <v>62.91999816894531</v>
+        <v>67.70999908447266</v>
       </c>
       <c r="D4">
-        <v>64.11000061035156</v>
+        <v>70.16000366210938</v>
       </c>
       <c r="E4">
-        <v>64.11000061035156</v>
+        <v>70.16000366210938</v>
       </c>
       <c r="F4">
-        <v>3226000</v>
+        <v>2678900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>63.68999862670898</v>
+        <v>70.69999694824219</v>
       </c>
       <c r="B5">
-        <v>65.65000152587891</v>
+        <v>75.15000152587891</v>
       </c>
       <c r="C5">
-        <v>62.31999969482422</v>
+        <v>70.26999664306641</v>
       </c>
       <c r="D5">
-        <v>65.26000213623047</v>
+        <v>71.91999816894531</v>
       </c>
       <c r="E5">
-        <v>65.26000213623047</v>
+        <v>71.91999816894531</v>
       </c>
       <c r="F5">
-        <v>2794800</v>
+        <v>5785600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>67</v>
+        <v>71.86000061035156</v>
       </c>
       <c r="B6">
-        <v>69.83999633789062</v>
+        <v>72.52999877929688</v>
       </c>
       <c r="C6">
-        <v>66.87400054931641</v>
+        <v>69.41000366210938</v>
       </c>
       <c r="D6">
-        <v>67.27999877929688</v>
+        <v>71.01000213623047</v>
       </c>
       <c r="E6">
-        <v>67.27999877929688</v>
+        <v>71.01000213623047</v>
       </c>
       <c r="F6">
-        <v>3262800</v>
+        <v>3577500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>69.86000061035156</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>71.68000030517578</v>
+        <v>71.62999725341797</v>
       </c>
       <c r="C7">
-        <v>68.91999816894531</v>
+        <v>68.09999847412109</v>
       </c>
       <c r="D7">
-        <v>70.30999755859375</v>
+        <v>70.02999877929688</v>
       </c>
       <c r="E7">
-        <v>70.30999755859375</v>
+        <v>70.02999877929688</v>
       </c>
       <c r="F7">
-        <v>3134000</v>
+        <v>2933900</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>70.59999847412109</v>
+        <v>69.54000091552734</v>
       </c>
       <c r="B8">
-        <v>70.98000335693359</v>
+        <v>71.34999847412109</v>
       </c>
       <c r="C8">
-        <v>67.90000152587891</v>
+        <v>66.34100341796875</v>
       </c>
       <c r="D8">
-        <v>68.84999847412109</v>
+        <v>66.66000366210938</v>
       </c>
       <c r="E8">
-        <v>68.84999847412109</v>
+        <v>66.66000366210938</v>
       </c>
       <c r="F8">
-        <v>2466400</v>
+        <v>3043200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>69.43000030517578</v>
+        <v>66.45999908447266</v>
       </c>
       <c r="B9">
-        <v>71.29000091552734</v>
+        <v>68.01000213623047</v>
       </c>
       <c r="C9">
-        <v>68.5</v>
+        <v>64.69999694824219</v>
       </c>
       <c r="D9">
-        <v>70.44999694824219</v>
+        <v>66.45999908447266</v>
       </c>
       <c r="E9">
-        <v>70.44999694824219</v>
+        <v>66.45999908447266</v>
       </c>
       <c r="F9">
-        <v>2614600</v>
+        <v>2477100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>70.51000213623047</v>
+        <v>65.25</v>
       </c>
       <c r="B10">
-        <v>70.75</v>
+        <v>67.37000274658203</v>
       </c>
       <c r="C10">
-        <v>67.38999938964844</v>
+        <v>64.72000122070312</v>
       </c>
       <c r="D10">
-        <v>67.55000305175781</v>
+        <v>66.62999725341797</v>
       </c>
       <c r="E10">
-        <v>67.55000305175781</v>
+        <v>66.62999725341797</v>
       </c>
       <c r="F10">
-        <v>2431300</v>
+        <v>1929100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>68.52999877929688</v>
+        <v>67.90000152587891</v>
       </c>
       <c r="B11">
-        <v>69.80899810791016</v>
+        <v>69.09999847412109</v>
       </c>
       <c r="C11">
-        <v>67.75</v>
+        <v>66.51000213623047</v>
       </c>
       <c r="D11">
-        <v>68.75</v>
+        <v>66.88999938964844</v>
       </c>
       <c r="E11">
-        <v>68.75</v>
+        <v>66.88999938964844</v>
       </c>
       <c r="F11">
-        <v>2285600</v>
+        <v>2443500</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>68</v>
+        <v>67.55000305175781</v>
       </c>
       <c r="B12">
-        <v>68.01000213623047</v>
+        <v>69.29000091552734</v>
       </c>
       <c r="C12">
-        <v>65.86000061035156</v>
+        <v>67.41000366210938</v>
       </c>
       <c r="D12">
-        <v>67.86000061035156</v>
+        <v>68.91999816894531</v>
       </c>
       <c r="E12">
-        <v>67.86000061035156</v>
+        <v>68.91999816894531</v>
       </c>
       <c r="F12">
-        <v>2568000</v>
+        <v>2644500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>66.54000091552734</v>
+        <v>69.62999725341797</v>
       </c>
       <c r="B13">
-        <v>69.08000183105469</v>
+        <v>71.28299713134766</v>
       </c>
       <c r="C13">
-        <v>66.05999755859375</v>
+        <v>68.84999847412109</v>
       </c>
       <c r="D13">
-        <v>68.91999816894531</v>
+        <v>71.12000274658203</v>
       </c>
       <c r="E13">
-        <v>68.91999816894531</v>
+        <v>71.12000274658203</v>
       </c>
       <c r="F13">
-        <v>3345200</v>
+        <v>2318500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>69.55000305175781</v>
+        <v>71.09999847412109</v>
       </c>
       <c r="B14">
-        <v>70.58999633789062</v>
+        <v>72.08000183105469</v>
       </c>
       <c r="C14">
-        <v>67.70999908447266</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>70.16000366210938</v>
+        <v>70.73000335693359</v>
       </c>
       <c r="E14">
-        <v>70.16000366210938</v>
+        <v>70.73000335693359</v>
       </c>
       <c r="F14">
-        <v>2678900</v>
+        <v>2063600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>70.69999694824219</v>
+        <v>66.68000030517578</v>
       </c>
       <c r="B15">
-        <v>75.15000152587891</v>
+        <v>68.55000305175781</v>
       </c>
       <c r="C15">
-        <v>70.26999664306641</v>
+        <v>66.30999755859375</v>
       </c>
       <c r="D15">
-        <v>71.91999816894531</v>
+        <v>67.77999877929688</v>
       </c>
       <c r="E15">
-        <v>71.91999816894531</v>
+        <v>67.77999877929688</v>
       </c>
       <c r="F15">
-        <v>5785600</v>
+        <v>4396200</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>71.86000061035156</v>
+        <v>68</v>
       </c>
       <c r="B16">
-        <v>72.52999877929688</v>
+        <v>68</v>
       </c>
       <c r="C16">
-        <v>69.41000366210938</v>
+        <v>63.93000030517578</v>
       </c>
       <c r="D16">
-        <v>71.01000213623047</v>
+        <v>65.05000305175781</v>
       </c>
       <c r="E16">
-        <v>71.01000213623047</v>
+        <v>65.05000305175781</v>
       </c>
       <c r="F16">
-        <v>3577500</v>
+        <v>3902000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>71</v>
+        <v>64.69999694824219</v>
       </c>
       <c r="B17">
-        <v>71.62999725341797</v>
+        <v>66.59999847412109</v>
       </c>
       <c r="C17">
-        <v>68.09999847412109</v>
+        <v>63.56000137329102</v>
       </c>
       <c r="D17">
-        <v>70.02999877929688</v>
+        <v>63.86999893188477</v>
       </c>
       <c r="E17">
-        <v>70.02999877929688</v>
+        <v>63.86999893188477</v>
       </c>
       <c r="F17">
-        <v>2933900</v>
+        <v>2977700</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>69.54000091552734</v>
+        <v>63.86999893188477</v>
       </c>
       <c r="B18">
-        <v>71.34999847412109</v>
+        <v>63.9900016784668</v>
       </c>
       <c r="C18">
-        <v>66.34100341796875</v>
+        <v>60.84999847412109</v>
       </c>
       <c r="D18">
-        <v>66.66000366210938</v>
+        <v>61.72000122070312</v>
       </c>
       <c r="E18">
-        <v>66.66000366210938</v>
+        <v>61.72000122070312</v>
       </c>
       <c r="F18">
-        <v>3043200</v>
+        <v>4283800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>66.45999908447266</v>
+        <v>60.81999969482422</v>
       </c>
       <c r="B19">
-        <v>68.01000213623047</v>
+        <v>61.02999877929688</v>
       </c>
       <c r="C19">
-        <v>64.69999694824219</v>
+        <v>57.34000015258789</v>
       </c>
       <c r="D19">
-        <v>66.45999908447266</v>
+        <v>59.29000091552734</v>
       </c>
       <c r="E19">
-        <v>66.45999908447266</v>
+        <v>59.29000091552734</v>
       </c>
       <c r="F19">
-        <v>2477100</v>
+        <v>4430500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>65.25</v>
+        <v>61.33000183105469</v>
       </c>
       <c r="B20">
-        <v>67.37000274658203</v>
+        <v>62.2599983215332</v>
       </c>
       <c r="C20">
-        <v>64.72000122070312</v>
+        <v>57.70999908447266</v>
       </c>
       <c r="D20">
-        <v>66.62999725341797</v>
+        <v>58.06000137329102</v>
       </c>
       <c r="E20">
-        <v>66.62999725341797</v>
+        <v>58.06000137329102</v>
       </c>
       <c r="F20">
-        <v>1929100</v>
+        <v>7300900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>67.90000152587891</v>
+        <v>47.33000183105469</v>
       </c>
       <c r="B21">
-        <v>69.09999847412109</v>
+        <v>48.5</v>
       </c>
       <c r="C21">
-        <v>66.51000213623047</v>
+        <v>41.40999984741211</v>
       </c>
       <c r="D21">
-        <v>66.88999938964844</v>
+        <v>42.31000137329102</v>
       </c>
       <c r="E21">
-        <v>66.88999938964844</v>
+        <v>42.31000137329102</v>
       </c>
       <c r="F21">
-        <v>2443500</v>
+        <v>32319600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>67.55000305175781</v>
+        <v>41.7400016784668</v>
       </c>
       <c r="B22">
-        <v>69.29000091552734</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="C22">
-        <v>67.41000366210938</v>
+        <v>41.15999984741211</v>
       </c>
       <c r="D22">
-        <v>68.91999816894531</v>
+        <v>41.88000106811523</v>
       </c>
       <c r="E22">
-        <v>68.91999816894531</v>
+        <v>41.88000106811523</v>
       </c>
       <c r="F22">
-        <v>2644500</v>
+        <v>12869300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>69.62999725341797</v>
+        <v>42.18000030517578</v>
       </c>
       <c r="B23">
-        <v>71.28299713134766</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="C23">
-        <v>68.84999847412109</v>
+        <v>40.20999908447266</v>
       </c>
       <c r="D23">
-        <v>71.12000274658203</v>
+        <v>42.22000122070312</v>
       </c>
       <c r="E23">
-        <v>71.12000274658203</v>
+        <v>42.22000122070312</v>
       </c>
       <c r="F23">
-        <v>2318500</v>
+        <v>9420600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>71.09999847412109</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="B24">
-        <v>72.08000183105469</v>
+        <v>46.91999816894531</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>40.72999954223633</v>
       </c>
       <c r="D24">
-        <v>70.73000335693359</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="E24">
-        <v>70.73000335693359</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="F24">
-        <v>2063600</v>
+        <v>10515000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>66.68000030517578</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>68.55000305175781</v>
+        <v>45.4900016784668</v>
       </c>
       <c r="C25">
-        <v>66.30999755859375</v>
+        <v>41.38999938964844</v>
       </c>
       <c r="D25">
-        <v>67.77999877929688</v>
+        <v>41.45000076293945</v>
       </c>
       <c r="E25">
-        <v>67.77999877929688</v>
+        <v>41.45000076293945</v>
       </c>
       <c r="F25">
-        <v>4396200</v>
+        <v>7313900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>68</v>
+        <v>41.93000030517578</v>
       </c>
       <c r="B26">
-        <v>68</v>
+        <v>43.29999923706055</v>
       </c>
       <c r="C26">
-        <v>63.93000030517578</v>
+        <v>39.4739990234375</v>
       </c>
       <c r="D26">
-        <v>65.05000305175781</v>
+        <v>39.97999954223633</v>
       </c>
       <c r="E26">
-        <v>65.05000305175781</v>
+        <v>39.97999954223633</v>
       </c>
       <c r="F26">
-        <v>3902000</v>
+        <v>6841400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>64.69999694824219</v>
+        <v>40.52999877929688</v>
       </c>
       <c r="B27">
-        <v>66.59999847412109</v>
+        <v>42.79000091552734</v>
       </c>
       <c r="C27">
-        <v>63.56000137329102</v>
+        <v>40.04999923706055</v>
       </c>
       <c r="D27">
-        <v>63.86999893188477</v>
+        <v>42.59999847412109</v>
       </c>
       <c r="E27">
-        <v>63.86999893188477</v>
+        <v>42.59999847412109</v>
       </c>
       <c r="F27">
-        <v>2977700</v>
+        <v>4723900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>63.86999893188477</v>
+        <v>42.38000106811523</v>
       </c>
       <c r="B28">
-        <v>63.9900016784668</v>
+        <v>43.70500183105469</v>
       </c>
       <c r="C28">
-        <v>60.84999847412109</v>
+        <v>41.13999938964844</v>
       </c>
       <c r="D28">
-        <v>61.72000122070312</v>
+        <v>42.29000091552734</v>
       </c>
       <c r="E28">
-        <v>61.72000122070312</v>
+        <v>42.29000091552734</v>
       </c>
       <c r="F28">
-        <v>4283800</v>
+        <v>2973900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>60.81999969482422</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="B29">
-        <v>61.02999877929688</v>
+        <v>44.52999877929688</v>
       </c>
       <c r="C29">
-        <v>57.34000015258789</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="D29">
-        <v>59.29000091552734</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="E29">
-        <v>59.29000091552734</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="F29">
-        <v>4430500</v>
+        <v>3758200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>61.33000183105469</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="B30">
-        <v>62.2599983215332</v>
+        <v>43.43000030517578</v>
       </c>
       <c r="C30">
-        <v>57.70999908447266</v>
+        <v>41.97999954223633</v>
       </c>
       <c r="D30">
-        <v>58.06000137329102</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="E30">
-        <v>58.06000137329102</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="F30">
-        <v>7300900</v>
+        <v>3450000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>47.33000183105469</v>
+        <v>43.40000152587891</v>
       </c>
       <c r="B31">
-        <v>48.5</v>
+        <v>44.22999954223633</v>
       </c>
       <c r="C31">
-        <v>41.40999984741211</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="D31">
-        <v>42.31000137329102</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="E31">
-        <v>42.31000137329102</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="F31">
-        <v>32319600</v>
+        <v>2790300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>41.7400016784668</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>44.45000076293945</v>
+        <v>45.40000152587891</v>
       </c>
       <c r="C32">
-        <v>41.15999984741211</v>
+        <v>43.13000106811523</v>
       </c>
       <c r="D32">
-        <v>41.88000106811523</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="E32">
-        <v>41.88000106811523</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="F32">
-        <v>12869300</v>
+        <v>3630200</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>42.18000030517578</v>
+        <v>45</v>
       </c>
       <c r="B33">
-        <v>44.22000122070312</v>
+        <v>46.52000045776367</v>
       </c>
       <c r="C33">
-        <v>40.20999908447266</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="D33">
-        <v>42.22000122070312</v>
+        <v>45.72999954223633</v>
       </c>
       <c r="E33">
-        <v>42.22000122070312</v>
+        <v>45.72999954223633</v>
       </c>
       <c r="F33">
-        <v>9420600</v>
+        <v>3126500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>41.79999923706055</v>
+        <v>45.91999816894531</v>
       </c>
       <c r="B34">
-        <v>46.91999816894531</v>
+        <v>46.45000076293945</v>
       </c>
       <c r="C34">
-        <v>40.72999954223633</v>
+        <v>44.93000030517578</v>
       </c>
       <c r="D34">
-        <v>46.34999847412109</v>
+        <v>45.20999908447266</v>
       </c>
       <c r="E34">
-        <v>46.34999847412109</v>
+        <v>45.20999908447266</v>
       </c>
       <c r="F34">
-        <v>10515000</v>
+        <v>2303000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>45</v>
+        <v>45.56999969482422</v>
       </c>
       <c r="B35">
-        <v>45.4900016784668</v>
+        <v>48.33000183105469</v>
       </c>
       <c r="C35">
-        <v>41.38999938964844</v>
+        <v>45.11999893188477</v>
       </c>
       <c r="D35">
-        <v>41.45000076293945</v>
+        <v>47.27000045776367</v>
       </c>
       <c r="E35">
-        <v>41.45000076293945</v>
+        <v>47.27000045776367</v>
       </c>
       <c r="F35">
-        <v>7313900</v>
+        <v>3977500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>41.93000030517578</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="B36">
-        <v>43.29999923706055</v>
+        <v>48.70999908447266</v>
       </c>
       <c r="C36">
-        <v>39.4739990234375</v>
+        <v>45.36000061035156</v>
       </c>
       <c r="D36">
-        <v>39.97999954223633</v>
+        <v>48.22999954223633</v>
       </c>
       <c r="E36">
-        <v>39.97999954223633</v>
+        <v>48.22999954223633</v>
       </c>
       <c r="F36">
-        <v>6841400</v>
+        <v>3393800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>40.52999877929688</v>
+        <v>48.34000015258789</v>
       </c>
       <c r="B37">
-        <v>42.79000091552734</v>
+        <v>49.5099983215332</v>
       </c>
       <c r="C37">
-        <v>40.04999923706055</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="D37">
-        <v>42.59999847412109</v>
+        <v>47.18999862670898</v>
       </c>
       <c r="E37">
-        <v>42.59999847412109</v>
+        <v>47.18999862670898</v>
       </c>
       <c r="F37">
-        <v>4723900</v>
+        <v>3322300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>42.38000106811523</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="B38">
-        <v>43.70500183105469</v>
+        <v>47.81000137329102</v>
       </c>
       <c r="C38">
-        <v>41.13999938964844</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="D38">
-        <v>42.29000091552734</v>
+        <v>47.29000091552734</v>
       </c>
       <c r="E38">
-        <v>42.29000091552734</v>
+        <v>47.29000091552734</v>
       </c>
       <c r="F38">
-        <v>2973900</v>
+        <v>3435200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>42.68999862670898</v>
+        <v>47.22999954223633</v>
       </c>
       <c r="B39">
-        <v>44.52999877929688</v>
+        <v>48.86999893188477</v>
       </c>
       <c r="C39">
-        <v>41.95000076293945</v>
+        <v>46.31999969482422</v>
       </c>
       <c r="D39">
-        <v>43.70999908447266</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="E39">
-        <v>43.70999908447266</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="F39">
-        <v>3758200</v>
+        <v>3803700</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>42.43999862670898</v>
+        <v>48.4900016784668</v>
       </c>
       <c r="B40">
-        <v>43.43000030517578</v>
+        <v>49.38000106811523</v>
       </c>
       <c r="C40">
-        <v>41.97999954223633</v>
+        <v>47.43999862670898</v>
       </c>
       <c r="D40">
-        <v>43.09999847412109</v>
+        <v>47.61999893188477</v>
       </c>
       <c r="E40">
-        <v>43.09999847412109</v>
+        <v>47.61999893188477</v>
       </c>
       <c r="F40">
-        <v>3450000</v>
+        <v>4135300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>43.40000152587891</v>
+        <v>47.72000122070312</v>
       </c>
       <c r="B41">
-        <v>44.22999954223633</v>
+        <v>48.21500015258789</v>
       </c>
       <c r="C41">
-        <v>42.68999862670898</v>
+        <v>47.11000061035156</v>
       </c>
       <c r="D41">
-        <v>43.77999877929688</v>
+        <v>47.31000137329102</v>
       </c>
       <c r="E41">
-        <v>43.77999877929688</v>
+        <v>47.31000137329102</v>
       </c>
       <c r="F41">
-        <v>2790300</v>
+        <v>2545800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>44</v>
+        <v>47.31000137329102</v>
       </c>
       <c r="B42">
-        <v>45.40000152587891</v>
+        <v>51.27999877929688</v>
       </c>
       <c r="C42">
-        <v>43.13000106811523</v>
+        <v>46.29000091552734</v>
       </c>
       <c r="D42">
-        <v>44.86999893188477</v>
+        <v>50.70000076293945</v>
       </c>
       <c r="E42">
-        <v>44.86999893188477</v>
+        <v>50.70000076293945</v>
       </c>
       <c r="F42">
-        <v>3630200</v>
+        <v>5597700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>45</v>
+        <v>49.90999984741211</v>
       </c>
       <c r="B43">
-        <v>46.52000045776367</v>
+        <v>56.97999954223633</v>
       </c>
       <c r="C43">
-        <v>44.59999847412109</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="D43">
-        <v>45.72999954223633</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="E43">
-        <v>45.72999954223633</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="F43">
-        <v>3126500</v>
+        <v>15154900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>45.91999816894531</v>
+        <v>58.95000076293945</v>
       </c>
       <c r="B44">
-        <v>46.45000076293945</v>
+        <v>59.15999984741211</v>
       </c>
       <c r="C44">
-        <v>44.93000030517578</v>
+        <v>54.54999923706055</v>
       </c>
       <c r="D44">
-        <v>45.20999908447266</v>
+        <v>54.68999862670898</v>
       </c>
       <c r="E44">
-        <v>45.20999908447266</v>
+        <v>54.68999862670898</v>
       </c>
       <c r="F44">
-        <v>2303000</v>
+        <v>9037900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>45.56999969482422</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="B45">
-        <v>48.33000183105469</v>
+        <v>54.73300170898438</v>
       </c>
       <c r="C45">
-        <v>45.11999893188477</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="D45">
-        <v>47.27000045776367</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="E45">
-        <v>47.27000045776367</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="F45">
-        <v>3977500</v>
+        <v>5824300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>46.20000076293945</v>
+        <v>53.31000137329102</v>
       </c>
       <c r="B46">
-        <v>48.70999908447266</v>
+        <v>54.59999847412109</v>
       </c>
       <c r="C46">
-        <v>45.36000061035156</v>
+        <v>53.09999847412109</v>
       </c>
       <c r="D46">
-        <v>48.22999954223633</v>
+        <v>54.38000106811523</v>
       </c>
       <c r="E46">
-        <v>48.22999954223633</v>
+        <v>54.38000106811523</v>
       </c>
       <c r="F46">
-        <v>3393800</v>
+        <v>3634800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>48.34000015258789</v>
+        <v>54.56999969482422</v>
       </c>
       <c r="B47">
-        <v>49.5099983215332</v>
+        <v>58.56999969482422</v>
       </c>
       <c r="C47">
-        <v>47.02999877929688</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="D47">
-        <v>47.18999862670898</v>
+        <v>57.45000076293945</v>
       </c>
       <c r="E47">
-        <v>47.18999862670898</v>
+        <v>57.45000076293945</v>
       </c>
       <c r="F47">
-        <v>3322300</v>
+        <v>6038800</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>46.9900016784668</v>
+        <v>57.84999847412109</v>
       </c>
       <c r="B48">
-        <v>47.81000137329102</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="C48">
-        <v>45.59999847412109</v>
+        <v>54.2599983215332</v>
       </c>
       <c r="D48">
-        <v>47.29000091552734</v>
+        <v>54.52999877929688</v>
       </c>
       <c r="E48">
-        <v>47.29000091552734</v>
+        <v>54.52999877929688</v>
       </c>
       <c r="F48">
-        <v>3435200</v>
+        <v>4166800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>47.22999954223633</v>
+        <v>54.31000137329102</v>
       </c>
       <c r="B49">
-        <v>48.86999893188477</v>
+        <v>56.54000091552734</v>
       </c>
       <c r="C49">
-        <v>46.31999969482422</v>
+        <v>53.68999862670898</v>
       </c>
       <c r="D49">
-        <v>48.77000045776367</v>
+        <v>55.47999954223633</v>
       </c>
       <c r="E49">
-        <v>48.77000045776367</v>
+        <v>55.47999954223633</v>
       </c>
       <c r="F49">
-        <v>3803700</v>
+        <v>3544600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>48.4900016784668</v>
+        <v>54.93000030517578</v>
       </c>
       <c r="B50">
-        <v>49.38000106811523</v>
+        <v>57.86999893188477</v>
       </c>
       <c r="C50">
-        <v>47.43999862670898</v>
+        <v>54.77099990844727</v>
       </c>
       <c r="D50">
-        <v>47.61999893188477</v>
+        <v>57.20999908447266</v>
       </c>
       <c r="E50">
-        <v>47.61999893188477</v>
+        <v>57.20999908447266</v>
       </c>
       <c r="F50">
-        <v>4135300</v>
+        <v>3460000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>47.72000122070312</v>
+        <v>57.89599990844727</v>
       </c>
       <c r="B51">
-        <v>48.21500015258789</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="C51">
-        <v>47.11000061035156</v>
+        <v>56.02000045776367</v>
       </c>
       <c r="D51">
-        <v>47.31000137329102</v>
+        <v>56.95999908447266</v>
       </c>
       <c r="E51">
-        <v>47.31000137329102</v>
+        <v>56.95999908447266</v>
       </c>
       <c r="F51">
-        <v>2545800</v>
+        <v>6395500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>47.31000137329102</v>
+        <v>56.75</v>
       </c>
       <c r="B52">
-        <v>51.27999877929688</v>
+        <v>57.22999954223633</v>
       </c>
       <c r="C52">
-        <v>46.29000091552734</v>
+        <v>54.45800018310547</v>
       </c>
       <c r="D52">
-        <v>50.70000076293945</v>
+        <v>55.90000152587891</v>
       </c>
       <c r="E52">
-        <v>50.70000076293945</v>
+        <v>55.90000152587891</v>
       </c>
       <c r="F52">
-        <v>5597700</v>
+        <v>3265400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>49.90999984741211</v>
+        <v>55.79000091552734</v>
       </c>
       <c r="B53">
-        <v>56.97999954223633</v>
+        <v>57.83000183105469</v>
       </c>
       <c r="C53">
-        <v>49.7599983215332</v>
+        <v>55.36999893188477</v>
       </c>
       <c r="D53">
-        <v>56.20000076293945</v>
+        <v>56.27000045776367</v>
       </c>
       <c r="E53">
-        <v>56.20000076293945</v>
+        <v>56.27000045776367</v>
       </c>
       <c r="F53">
-        <v>15154900</v>
+        <v>2867500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>58.95000076293945</v>
+        <v>57.15999984741211</v>
       </c>
       <c r="B54">
-        <v>59.15999984741211</v>
+        <v>58.56800079345703</v>
       </c>
       <c r="C54">
-        <v>54.54999923706055</v>
+        <v>56.45000076293945</v>
       </c>
       <c r="D54">
-        <v>54.68999862670898</v>
+        <v>57.13000106811523</v>
       </c>
       <c r="E54">
-        <v>54.68999862670898</v>
+        <v>57.13000106811523</v>
       </c>
       <c r="F54">
-        <v>9037900</v>
+        <v>3123900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>51.79999923706055</v>
+        <v>57.66999816894531</v>
       </c>
       <c r="B55">
-        <v>54.73300170898438</v>
+        <v>61.38000106811523</v>
       </c>
       <c r="C55">
-        <v>51.52000045776367</v>
+        <v>57.54999923706055</v>
       </c>
       <c r="D55">
-        <v>53.90999984741211</v>
+        <v>59.20999908447266</v>
       </c>
       <c r="E55">
-        <v>53.90999984741211</v>
+        <v>59.20999908447266</v>
       </c>
       <c r="F55">
-        <v>5824300</v>
+        <v>6056400</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>53.31000137329102</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>54.59999847412109</v>
+        <v>60.86000061035156</v>
       </c>
       <c r="C56">
-        <v>53.09999847412109</v>
+        <v>58.33000183105469</v>
       </c>
       <c r="D56">
-        <v>54.38000106811523</v>
+        <v>60.63999938964844</v>
       </c>
       <c r="E56">
-        <v>54.38000106811523</v>
+        <v>60.63999938964844</v>
       </c>
       <c r="F56">
-        <v>3634800</v>
+        <v>7250700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>54.56999969482422</v>
+        <v>61.18000030517578</v>
       </c>
       <c r="B57">
-        <v>58.56999969482422</v>
+        <v>62.16999816894531</v>
       </c>
       <c r="C57">
-        <v>54.56000137329102</v>
+        <v>60.68000030517578</v>
       </c>
       <c r="D57">
-        <v>57.45000076293945</v>
+        <v>61.08000183105469</v>
       </c>
       <c r="E57">
-        <v>57.45000076293945</v>
+        <v>61.08000183105469</v>
       </c>
       <c r="F57">
-        <v>6038800</v>
+        <v>3332600</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>57.84999847412109</v>
+        <v>60.97999954223633</v>
       </c>
       <c r="B58">
-        <v>58.09999847412109</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>54.2599983215332</v>
+        <v>59.31999969482422</v>
       </c>
       <c r="D58">
-        <v>54.52999877929688</v>
+        <v>60.41999816894531</v>
       </c>
       <c r="E58">
-        <v>54.52999877929688</v>
+        <v>60.41999816894531</v>
       </c>
       <c r="F58">
-        <v>4166800</v>
+        <v>3032500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>54.31000137329102</v>
+        <v>59.95000076293945</v>
       </c>
       <c r="B59">
-        <v>56.54000091552734</v>
+        <v>64.06999969482422</v>
       </c>
       <c r="C59">
-        <v>53.68999862670898</v>
+        <v>58.33000183105469</v>
       </c>
       <c r="D59">
-        <v>55.47999954223633</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="E59">
-        <v>55.47999954223633</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="F59">
-        <v>3544600</v>
+        <v>8335600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>54.93000030517578</v>
+        <v>59.58000183105469</v>
       </c>
       <c r="B60">
-        <v>57.86999893188477</v>
+        <v>60.63999938964844</v>
       </c>
       <c r="C60">
-        <v>54.77099990844727</v>
+        <v>57.41999816894531</v>
       </c>
       <c r="D60">
-        <v>57.20999908447266</v>
+        <v>58.02000045776367</v>
       </c>
       <c r="E60">
-        <v>57.20999908447266</v>
+        <v>58.02000045776367</v>
       </c>
       <c r="F60">
-        <v>3460000</v>
+        <v>3814300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>57.89599990844727</v>
+        <v>58.33000183105469</v>
       </c>
       <c r="B61">
-        <v>58.40000152587891</v>
+        <v>59.40000152587891</v>
       </c>
       <c r="C61">
-        <v>56.02000045776367</v>
+        <v>55.79899978637695</v>
       </c>
       <c r="D61">
-        <v>56.95999908447266</v>
+        <v>56.47000122070312</v>
       </c>
       <c r="E61">
-        <v>56.95999908447266</v>
+        <v>56.47000122070312</v>
       </c>
       <c r="F61">
-        <v>6395500</v>
+        <v>3930000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>56.75</v>
+        <v>56.65000152587891</v>
       </c>
       <c r="B62">
-        <v>57.22999954223633</v>
+        <v>58.11999893188477</v>
       </c>
       <c r="C62">
-        <v>54.45800018310547</v>
+        <v>55.31000137329102</v>
       </c>
       <c r="D62">
-        <v>55.90000152587891</v>
+        <v>56.86000061035156</v>
       </c>
       <c r="E62">
-        <v>55.90000152587891</v>
+        <v>56.86000061035156</v>
       </c>
       <c r="F62">
-        <v>3265400</v>
+        <v>2961700</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>55.79000091552734</v>
+        <v>57.72999954223633</v>
       </c>
       <c r="B63">
-        <v>57.83000183105469</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="C63">
-        <v>55.36999893188477</v>
+        <v>54.11999893188477</v>
       </c>
       <c r="D63">
-        <v>56.27000045776367</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="E63">
-        <v>56.27000045776367</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="F63">
-        <v>2867500</v>
+        <v>2714500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>57.15999984741211</v>
+        <v>53.25</v>
       </c>
       <c r="B64">
-        <v>58.56800079345703</v>
+        <v>56.13000106811523</v>
       </c>
       <c r="C64">
-        <v>56.45000076293945</v>
+        <v>52.34999847412109</v>
       </c>
       <c r="D64">
-        <v>57.13000106811523</v>
+        <v>54.9900016784668</v>
       </c>
       <c r="E64">
-        <v>57.13000106811523</v>
+        <v>54.9900016784668</v>
       </c>
       <c r="F64">
-        <v>3123900</v>
+        <v>3047900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>57.66999816894531</v>
+        <v>55.29999923706055</v>
       </c>
       <c r="B65">
-        <v>61.38000106811523</v>
+        <v>56.52999877929688</v>
       </c>
       <c r="C65">
-        <v>57.54999923706055</v>
+        <v>54.40000152587891</v>
       </c>
       <c r="D65">
-        <v>59.20999908447266</v>
+        <v>56.38999938964844</v>
       </c>
       <c r="E65">
-        <v>59.20999908447266</v>
+        <v>56.38999938964844</v>
       </c>
       <c r="F65">
-        <v>6056400</v>
+        <v>2345100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>59</v>
+        <v>56.56000137329102</v>
       </c>
       <c r="B66">
-        <v>60.86000061035156</v>
+        <v>57.13000106811523</v>
       </c>
       <c r="C66">
-        <v>58.33000183105469</v>
+        <v>53.86000061035156</v>
       </c>
       <c r="D66">
-        <v>60.63999938964844</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="E66">
-        <v>60.63999938964844</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="F66">
-        <v>7250700</v>
+        <v>2547500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>61.18000030517578</v>
+        <v>54.29999923706055</v>
       </c>
       <c r="B67">
-        <v>62.16999816894531</v>
+        <v>55.33000183105469</v>
       </c>
       <c r="C67">
-        <v>60.68000030517578</v>
+        <v>53.52000045776367</v>
       </c>
       <c r="D67">
-        <v>61.08000183105469</v>
+        <v>53.70999908447266</v>
       </c>
       <c r="E67">
-        <v>61.08000183105469</v>
+        <v>53.70999908447266</v>
       </c>
       <c r="F67">
-        <v>3332600</v>
+        <v>2144600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>60.97999954223633</v>
+        <v>53.79999923706055</v>
       </c>
       <c r="B68">
-        <v>62</v>
+        <v>53.9900016784668</v>
       </c>
       <c r="C68">
-        <v>59.31999969482422</v>
+        <v>49.84000015258789</v>
       </c>
       <c r="D68">
-        <v>60.41999816894531</v>
+        <v>50.13000106811523</v>
       </c>
       <c r="E68">
-        <v>60.41999816894531</v>
+        <v>50.13000106811523</v>
       </c>
       <c r="F68">
-        <v>3032500</v>
+        <v>4411300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>59.95000076293945</v>
+        <v>49.97999954223633</v>
       </c>
       <c r="B69">
-        <v>64.06999969482422</v>
+        <v>52.18000030517578</v>
       </c>
       <c r="C69">
-        <v>58.33000183105469</v>
+        <v>48.40000152587891</v>
       </c>
       <c r="D69">
-        <v>59.59999847412109</v>
+        <v>49.09999847412109</v>
       </c>
       <c r="E69">
-        <v>59.59999847412109</v>
+        <v>49.09999847412109</v>
       </c>
       <c r="F69">
-        <v>8335600</v>
+        <v>3529900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>59.58000183105469</v>
+        <v>49.54000091552734</v>
       </c>
       <c r="B70">
-        <v>60.63999938964844</v>
+        <v>50.47000122070312</v>
       </c>
       <c r="C70">
-        <v>57.41999816894531</v>
+        <v>48.70000076293945</v>
       </c>
       <c r="D70">
-        <v>58.02000045776367</v>
+        <v>49.9900016784668</v>
       </c>
       <c r="E70">
-        <v>58.02000045776367</v>
+        <v>49.9900016784668</v>
       </c>
       <c r="F70">
-        <v>3814300</v>
+        <v>3119900</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>58.33000183105469</v>
+        <v>49.02000045776367</v>
       </c>
       <c r="B71">
-        <v>59.40000152587891</v>
+        <v>52.47000122070312</v>
       </c>
       <c r="C71">
-        <v>55.79899978637695</v>
+        <v>48.65999984741211</v>
       </c>
       <c r="D71">
-        <v>56.47000122070312</v>
+        <v>51.20999908447266</v>
       </c>
       <c r="E71">
-        <v>56.47000122070312</v>
+        <v>51.20999908447266</v>
       </c>
       <c r="F71">
-        <v>3930000</v>
+        <v>3378800</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>56.65000152587891</v>
+        <v>51.29999923706055</v>
       </c>
       <c r="B72">
-        <v>58.11999893188477</v>
+        <v>52.18000030517578</v>
       </c>
       <c r="C72">
-        <v>55.31000137329102</v>
+        <v>49.86999893188477</v>
       </c>
       <c r="D72">
-        <v>56.86000061035156</v>
+        <v>51.5</v>
       </c>
       <c r="E72">
-        <v>56.86000061035156</v>
+        <v>51.5</v>
       </c>
       <c r="F72">
-        <v>2961700</v>
+        <v>2218500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>57.72999954223633</v>
+        <v>51.65000152587891</v>
       </c>
       <c r="B73">
-        <v>58.09999847412109</v>
+        <v>52.61999893188477</v>
       </c>
       <c r="C73">
-        <v>54.11999893188477</v>
+        <v>50.88000106811523</v>
       </c>
       <c r="D73">
-        <v>54.36999893188477</v>
+        <v>52.45999908447266</v>
       </c>
       <c r="E73">
-        <v>54.36999893188477</v>
+        <v>52.45999908447266</v>
       </c>
       <c r="F73">
-        <v>2714500</v>
+        <v>2223400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>53.25</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="B74">
-        <v>56.13000106811523</v>
+        <v>53.5</v>
       </c>
       <c r="C74">
-        <v>52.34999847412109</v>
+        <v>51.91999816894531</v>
       </c>
       <c r="D74">
-        <v>54.9900016784668</v>
+        <v>52.36999893188477</v>
       </c>
       <c r="E74">
-        <v>54.9900016784668</v>
+        <v>52.36999893188477</v>
       </c>
       <c r="F74">
-        <v>3047900</v>
+        <v>2055600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>55.29999923706055</v>
+        <v>52.15000152587891</v>
       </c>
       <c r="B75">
-        <v>56.52999877929688</v>
+        <v>52.16999816894531</v>
       </c>
       <c r="C75">
-        <v>54.40000152587891</v>
+        <v>49.77000045776367</v>
       </c>
       <c r="D75">
-        <v>56.38999938964844</v>
+        <v>49.81999969482422</v>
       </c>
       <c r="E75">
-        <v>56.38999938964844</v>
+        <v>49.81999969482422</v>
       </c>
       <c r="F75">
-        <v>2345100</v>
+        <v>3744300</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>56.56000137329102</v>
+        <v>49.5</v>
       </c>
       <c r="B76">
-        <v>57.13000106811523</v>
+        <v>49.59000015258789</v>
       </c>
       <c r="C76">
-        <v>53.86000061035156</v>
+        <v>47.75</v>
       </c>
       <c r="D76">
-        <v>54.36999893188477</v>
+        <v>48.97000122070312</v>
       </c>
       <c r="E76">
-        <v>54.36999893188477</v>
+        <v>48.97000122070312</v>
       </c>
       <c r="F76">
-        <v>2547500</v>
+        <v>3316500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>54.29999923706055</v>
+        <v>48.9900016784668</v>
       </c>
       <c r="B77">
-        <v>55.33000183105469</v>
+        <v>49.34999847412109</v>
       </c>
       <c r="C77">
-        <v>53.52000045776367</v>
+        <v>46.43999862670898</v>
       </c>
       <c r="D77">
-        <v>53.70999908447266</v>
+        <v>48.16999816894531</v>
       </c>
       <c r="E77">
-        <v>53.70999908447266</v>
+        <v>48.16999816894531</v>
       </c>
       <c r="F77">
-        <v>2144600</v>
+        <v>2924300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>53.79999923706055</v>
+        <v>48.11000061035156</v>
       </c>
       <c r="B78">
-        <v>53.9900016784668</v>
+        <v>51.04999923706055</v>
       </c>
       <c r="C78">
-        <v>49.84000015258789</v>
+        <v>47.95999908447266</v>
       </c>
       <c r="D78">
-        <v>50.13000106811523</v>
+        <v>50.34999847412109</v>
       </c>
       <c r="E78">
-        <v>50.13000106811523</v>
+        <v>50.34999847412109</v>
       </c>
       <c r="F78">
-        <v>4411300</v>
+        <v>2920200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>49.97999954223633</v>
+        <v>50.38000106811523</v>
       </c>
       <c r="B79">
-        <v>52.18000030517578</v>
+        <v>51.09000015258789</v>
       </c>
       <c r="C79">
-        <v>48.40000152587891</v>
+        <v>49.04000091552734</v>
       </c>
       <c r="D79">
-        <v>49.09999847412109</v>
+        <v>49.11000061035156</v>
       </c>
       <c r="E79">
-        <v>49.09999847412109</v>
+        <v>49.11000061035156</v>
       </c>
       <c r="F79">
-        <v>3529900</v>
+        <v>2131800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>49.54000091552734</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="B80">
-        <v>50.47000122070312</v>
+        <v>49.52000045776367</v>
       </c>
       <c r="C80">
-        <v>48.70000076293945</v>
+        <v>47.73500061035156</v>
       </c>
       <c r="D80">
-        <v>49.9900016784668</v>
+        <v>48.06999969482422</v>
       </c>
       <c r="E80">
-        <v>49.9900016784668</v>
+        <v>48.06999969482422</v>
       </c>
       <c r="F80">
-        <v>3119900</v>
+        <v>2271600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>49.02000045776367</v>
+        <v>48.43999862670898</v>
       </c>
       <c r="B81">
-        <v>52.47000122070312</v>
+        <v>48.83000183105469</v>
       </c>
       <c r="C81">
-        <v>48.65999984741211</v>
+        <v>46.8390007019043</v>
       </c>
       <c r="D81">
-        <v>51.20999908447266</v>
+        <v>47.36000061035156</v>
       </c>
       <c r="E81">
-        <v>51.20999908447266</v>
+        <v>47.36000061035156</v>
       </c>
       <c r="F81">
-        <v>3378800</v>
+        <v>3365400</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>51.29999923706055</v>
+        <v>47.5</v>
       </c>
       <c r="B82">
-        <v>52.18000030517578</v>
+        <v>47.88999938964844</v>
       </c>
       <c r="C82">
-        <v>49.86999893188477</v>
+        <v>45.40999984741211</v>
       </c>
       <c r="D82">
-        <v>51.5</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="E82">
-        <v>51.5</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="F82">
-        <v>2218500</v>
+        <v>3809600</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>51.65000152587891</v>
+        <v>45.93999862670898</v>
       </c>
       <c r="B83">
-        <v>52.61999893188477</v>
+        <v>46.25</v>
       </c>
       <c r="C83">
-        <v>50.88000106811523</v>
+        <v>43.93999862670898</v>
       </c>
       <c r="D83">
-        <v>52.45999908447266</v>
+        <v>44.54000091552734</v>
       </c>
       <c r="E83">
-        <v>52.45999908447266</v>
+        <v>44.54000091552734</v>
       </c>
       <c r="F83">
-        <v>2223400</v>
+        <v>9944000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>52.54999923706055</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="B84">
-        <v>53.5</v>
+        <v>42.27000045776367</v>
       </c>
       <c r="C84">
-        <v>51.91999816894531</v>
+        <v>33.86999893188477</v>
       </c>
       <c r="D84">
-        <v>52.36999893188477</v>
+        <v>39.93000030517578</v>
       </c>
       <c r="E84">
-        <v>52.36999893188477</v>
+        <v>39.93000030517578</v>
       </c>
       <c r="F84">
-        <v>2055600</v>
+        <v>50301900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>52.15000152587891</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="B85">
-        <v>52.16999816894531</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="C85">
-        <v>49.77000045776367</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="D85">
-        <v>49.81999969482422</v>
+        <v>41.2400016784668</v>
       </c>
       <c r="E85">
-        <v>49.81999969482422</v>
+        <v>41.2400016784668</v>
       </c>
       <c r="F85">
-        <v>3744300</v>
+        <v>9545400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>49.5</v>
+        <v>41.13000106811523</v>
       </c>
       <c r="B86">
-        <v>49.59000015258789</v>
+        <v>44.82600021362305</v>
       </c>
       <c r="C86">
-        <v>47.75</v>
+        <v>40.97999954223633</v>
       </c>
       <c r="D86">
-        <v>48.97000122070312</v>
+        <v>44.04000091552734</v>
       </c>
       <c r="E86">
-        <v>48.97000122070312</v>
+        <v>44.04000091552734</v>
       </c>
       <c r="F86">
-        <v>3316500</v>
+        <v>8479100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>48.9900016784668</v>
+        <v>44.27000045776367</v>
       </c>
       <c r="B87">
-        <v>49.34999847412109</v>
+        <v>44.83000183105469</v>
       </c>
       <c r="C87">
-        <v>46.43999862670898</v>
+        <v>41.88999938964844</v>
       </c>
       <c r="D87">
-        <v>48.16999816894531</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="E87">
-        <v>48.16999816894531</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="F87">
-        <v>2924300</v>
+        <v>4525400</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>48.11000061035156</v>
+        <v>42.45999908447266</v>
       </c>
       <c r="B88">
-        <v>51.04999923706055</v>
+        <v>43.0890007019043</v>
       </c>
       <c r="C88">
-        <v>47.95999908447266</v>
+        <v>41.27199935913086</v>
       </c>
       <c r="D88">
-        <v>50.34999847412109</v>
+        <v>42.08000183105469</v>
       </c>
       <c r="E88">
-        <v>50.34999847412109</v>
+        <v>42.08000183105469</v>
       </c>
       <c r="F88">
-        <v>2920200</v>
+        <v>2719300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>50.38000106811523</v>
+        <v>41.91999816894531</v>
       </c>
       <c r="B89">
-        <v>51.09000015258789</v>
+        <v>43.16999816894531</v>
       </c>
       <c r="C89">
-        <v>49.04000091552734</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="D89">
-        <v>49.11000061035156</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="E89">
-        <v>49.11000061035156</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="F89">
-        <v>2131800</v>
+        <v>2417900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>48.63999938964844</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="B90">
-        <v>49.52000045776367</v>
+        <v>43.25</v>
       </c>
       <c r="C90">
-        <v>47.73500061035156</v>
+        <v>41.63000106811523</v>
       </c>
       <c r="D90">
-        <v>48.06999969482422</v>
+        <v>42.11000061035156</v>
       </c>
       <c r="E90">
-        <v>48.06999969482422</v>
+        <v>42.11000061035156</v>
       </c>
       <c r="F90">
-        <v>2271600</v>
+        <v>2607300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>48.43999862670898</v>
+        <v>41.59999847412109</v>
       </c>
       <c r="B91">
-        <v>48.83000183105469</v>
+        <v>41.59999847412109</v>
       </c>
       <c r="C91">
-        <v>46.8390007019043</v>
+        <v>39.5</v>
       </c>
       <c r="D91">
-        <v>47.36000061035156</v>
+        <v>39.88000106811523</v>
       </c>
       <c r="E91">
-        <v>47.36000061035156</v>
+        <v>39.88000106811523</v>
       </c>
       <c r="F91">
-        <v>3365400</v>
+        <v>5085400</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>47.5</v>
+        <v>39.20000076293945</v>
       </c>
       <c r="B92">
-        <v>47.88999938964844</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="C92">
-        <v>45.40999984741211</v>
+        <v>39</v>
       </c>
       <c r="D92">
-        <v>46.22999954223633</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="E92">
-        <v>46.22999954223633</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="F92">
-        <v>3809600</v>
+        <v>4138200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>45.93999862670898</v>
+        <v>40.95000076293945</v>
       </c>
       <c r="B93">
-        <v>46.25</v>
+        <v>41.65999984741211</v>
       </c>
       <c r="C93">
-        <v>43.93999862670898</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="D93">
-        <v>44.54000091552734</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="E93">
-        <v>44.54000091552734</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="F93">
-        <v>9944000</v>
+        <v>3216900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>34.95000076293945</v>
+        <v>41.02000045776367</v>
       </c>
       <c r="B94">
-        <v>42.27000045776367</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="C94">
-        <v>33.86999893188477</v>
+        <v>38.70000076293945</v>
       </c>
       <c r="D94">
-        <v>39.93000030517578</v>
+        <v>39.22000122070312</v>
       </c>
       <c r="E94">
-        <v>39.93000030517578</v>
+        <v>39.22000122070312</v>
       </c>
       <c r="F94">
-        <v>50301900</v>
+        <v>3129100</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>39.4900016784668</v>
+        <v>38.9900016784668</v>
       </c>
       <c r="B95">
-        <v>41.95000076293945</v>
+        <v>41.11000061035156</v>
       </c>
       <c r="C95">
-        <v>38.90000152587891</v>
+        <v>38.97499847412109</v>
       </c>
       <c r="D95">
-        <v>41.2400016784668</v>
+        <v>40.93000030517578</v>
       </c>
       <c r="E95">
-        <v>41.2400016784668</v>
+        <v>40.93000030517578</v>
       </c>
       <c r="F95">
-        <v>9545400</v>
+        <v>3168700</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>41.13000106811523</v>
+        <v>40.77999877929688</v>
       </c>
       <c r="B96">
-        <v>44.82600021362305</v>
+        <v>43.5099983215332</v>
       </c>
       <c r="C96">
-        <v>40.97999954223633</v>
+        <v>40.59000015258789</v>
       </c>
       <c r="D96">
-        <v>44.04000091552734</v>
+        <v>43.2599983215332</v>
       </c>
       <c r="E96">
-        <v>44.04000091552734</v>
+        <v>43.2599983215332</v>
       </c>
       <c r="F96">
-        <v>8479100</v>
+        <v>3910400</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>44.27000045776367</v>
+        <v>43.72999954223633</v>
       </c>
       <c r="B97">
-        <v>44.83000183105469</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="C97">
-        <v>41.88999938964844</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="D97">
-        <v>42.29999923706055</v>
+        <v>43.83000183105469</v>
       </c>
       <c r="E97">
-        <v>42.29999923706055</v>
+        <v>43.83000183105469</v>
       </c>
       <c r="F97">
-        <v>4525400</v>
+        <v>2942700</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>42.45999908447266</v>
+        <v>44.13999938964844</v>
       </c>
       <c r="B98">
-        <v>43.0890007019043</v>
+        <v>45.58000183105469</v>
       </c>
       <c r="C98">
-        <v>41.27199935913086</v>
+        <v>44.05300140380859</v>
       </c>
       <c r="D98">
-        <v>42.08000183105469</v>
+        <v>44.31000137329102</v>
       </c>
       <c r="E98">
-        <v>42.08000183105469</v>
+        <v>44.31000137329102</v>
       </c>
       <c r="F98">
-        <v>2719300</v>
+        <v>3329500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>41.91999816894531</v>
+        <v>44</v>
       </c>
       <c r="B99">
-        <v>43.16999816894531</v>
+        <v>44.65999984741211</v>
       </c>
       <c r="C99">
-        <v>41.70999908447266</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="D99">
-        <v>42.97000122070312</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="E99">
-        <v>42.97000122070312</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="F99">
-        <v>2417900</v>
+        <v>1819100</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>42.97000122070312</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="B100">
-        <v>43.25</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="C100">
-        <v>41.63000106811523</v>
+        <v>42.63000106811523</v>
       </c>
       <c r="D100">
-        <v>42.11000061035156</v>
+        <v>43.75</v>
       </c>
       <c r="E100">
-        <v>42.11000061035156</v>
+        <v>43.75</v>
       </c>
       <c r="F100">
-        <v>2607300</v>
+        <v>2222100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>41.59999847412109</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="B101">
-        <v>41.59999847412109</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="C101">
-        <v>39.5</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="D101">
-        <v>39.88000106811523</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="E101">
-        <v>39.88000106811523</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="F101">
-        <v>5085400</v>
+        <v>1905500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>39.20000076293945</v>
+        <v>43.2599983215332</v>
       </c>
       <c r="B102">
-        <v>40.95999908447266</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="C102">
-        <v>39</v>
+        <v>42.88999938964844</v>
       </c>
       <c r="D102">
-        <v>40.95999908447266</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="E102">
-        <v>40.95999908447266</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="F102">
-        <v>4138200</v>
+        <v>1891900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>40.95000076293945</v>
+        <v>44.20999908447266</v>
       </c>
       <c r="B103">
-        <v>41.65999984741211</v>
+        <v>47.04000091552734</v>
       </c>
       <c r="C103">
-        <v>39.95999908447266</v>
+        <v>43.83000183105469</v>
       </c>
       <c r="D103">
-        <v>40.95999908447266</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="E103">
-        <v>40.95999908447266</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="F103">
-        <v>3216900</v>
+        <v>4215700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>41.02000045776367</v>
+        <v>45.83000183105469</v>
       </c>
       <c r="B104">
-        <v>41.20999908447266</v>
+        <v>48.22999954223633</v>
       </c>
       <c r="C104">
-        <v>38.70000076293945</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="D104">
-        <v>39.22000122070312</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E104">
-        <v>39.22000122070312</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F104">
-        <v>3129100</v>
+        <v>5613400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>38.9900016784668</v>
+        <v>46.58000183105469</v>
       </c>
       <c r="B105">
-        <v>41.11000061035156</v>
+        <v>47.52999877929688</v>
       </c>
       <c r="C105">
-        <v>38.97499847412109</v>
+        <v>46.13999938964844</v>
       </c>
       <c r="D105">
-        <v>40.93000030517578</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="E105">
-        <v>40.93000030517578</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="F105">
-        <v>3168700</v>
+        <v>2003800</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>40.77999877929688</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="B106">
-        <v>43.5099983215332</v>
+        <v>47.25</v>
       </c>
       <c r="C106">
-        <v>40.59000015258789</v>
+        <v>45.86000061035156</v>
       </c>
       <c r="D106">
-        <v>43.2599983215332</v>
+        <v>46.36000061035156</v>
       </c>
       <c r="E106">
-        <v>43.2599983215332</v>
+        <v>46.36000061035156</v>
       </c>
       <c r="F106">
-        <v>3910400</v>
+        <v>2480500</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>43.72999954223633</v>
+        <v>46.95000076293945</v>
       </c>
       <c r="B107">
-        <v>44.41999816894531</v>
+        <v>46.95000076293945</v>
       </c>
       <c r="C107">
-        <v>43.09999847412109</v>
+        <v>44.36000061035156</v>
       </c>
       <c r="D107">
-        <v>43.83000183105469</v>
+        <v>45.13999938964844</v>
       </c>
       <c r="E107">
-        <v>43.83000183105469</v>
+        <v>45.13999938964844</v>
       </c>
       <c r="F107">
-        <v>2942700</v>
+        <v>2617400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>44.13999938964844</v>
+        <v>44.83000183105469</v>
       </c>
       <c r="B108">
-        <v>45.58000183105469</v>
+        <v>46.08599853515625</v>
       </c>
       <c r="C108">
-        <v>44.05300140380859</v>
+        <v>44.44499969482422</v>
       </c>
       <c r="D108">
-        <v>44.31000137329102</v>
+        <v>45.61999893188477</v>
       </c>
       <c r="E108">
-        <v>44.31000137329102</v>
+        <v>45.61999893188477</v>
       </c>
       <c r="F108">
-        <v>3329500</v>
+        <v>1405600</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>44</v>
+        <v>45.81999969482422</v>
       </c>
       <c r="B109">
-        <v>44.65999984741211</v>
+        <v>45.93999862670898</v>
       </c>
       <c r="C109">
-        <v>42.79999923706055</v>
+        <v>43.7599983215332</v>
       </c>
       <c r="D109">
-        <v>43.09999847412109</v>
+        <v>43.97999954223633</v>
       </c>
       <c r="E109">
-        <v>43.09999847412109</v>
+        <v>43.97999954223633</v>
       </c>
       <c r="F109">
-        <v>1819100</v>
+        <v>2395100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>42.95999908447266</v>
+        <v>43.97999954223633</v>
       </c>
       <c r="B110">
-        <v>44.29999923706055</v>
+        <v>45.02000045776367</v>
       </c>
       <c r="C110">
-        <v>42.63000106811523</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="D110">
-        <v>43.75</v>
+        <v>43.90999984741211</v>
       </c>
       <c r="E110">
-        <v>43.75</v>
+        <v>43.90999984741211</v>
       </c>
       <c r="F110">
-        <v>2222100</v>
+        <v>2595100</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>43.86000061035156</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="B111">
-        <v>44.40000152587891</v>
+        <v>45.06999969482422</v>
       </c>
       <c r="C111">
-        <v>42.79999923706055</v>
+        <v>43.52999877929688</v>
       </c>
       <c r="D111">
-        <v>43.59999847412109</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="E111">
-        <v>43.59999847412109</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="F111">
-        <v>1905500</v>
+        <v>1753900</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>43.2599983215332</v>
+        <v>43.75</v>
       </c>
       <c r="B112">
-        <v>44.02999877929688</v>
+        <v>43.77000045776367</v>
       </c>
       <c r="C112">
-        <v>42.88999938964844</v>
+        <v>42.65499877929688</v>
       </c>
       <c r="D112">
-        <v>43.59999847412109</v>
+        <v>43.56999969482422</v>
       </c>
       <c r="E112">
-        <v>43.59999847412109</v>
+        <v>43.56999969482422</v>
       </c>
       <c r="F112">
-        <v>1891900</v>
+        <v>2189500</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>44.20999908447266</v>
+        <v>43.38999938964844</v>
       </c>
       <c r="B113">
-        <v>47.04000091552734</v>
+        <v>44.43000030517578</v>
       </c>
       <c r="C113">
-        <v>43.83000183105469</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="D113">
-        <v>45.7400016784668</v>
+        <v>44.27999877929688</v>
       </c>
       <c r="E113">
-        <v>45.7400016784668</v>
+        <v>44.27999877929688</v>
       </c>
       <c r="F113">
-        <v>4215700</v>
+        <v>1995800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>45.83000183105469</v>
+        <v>44.47999954223633</v>
       </c>
       <c r="B114">
-        <v>48.22999954223633</v>
+        <v>45.18999862670898</v>
       </c>
       <c r="C114">
-        <v>45.7400016784668</v>
+        <v>43.68000030517578</v>
       </c>
       <c r="D114">
-        <v>47.2599983215332</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="E114">
-        <v>47.2599983215332</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="F114">
-        <v>5613400</v>
+        <v>3753500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>46.58000183105469</v>
+        <v>43.61000061035156</v>
       </c>
       <c r="B115">
-        <v>47.52999877929688</v>
+        <v>44.5</v>
       </c>
       <c r="C115">
-        <v>46.13999938964844</v>
+        <v>41.91999816894531</v>
       </c>
       <c r="D115">
-        <v>46.68999862670898</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="E115">
-        <v>46.68999862670898</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="F115">
-        <v>2003800</v>
+        <v>2796100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>46.68999862670898</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="B116">
-        <v>47.25</v>
+        <v>43.7400016784668</v>
       </c>
       <c r="C116">
-        <v>45.86000061035156</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="D116">
-        <v>46.36000061035156</v>
+        <v>42.2400016784668</v>
       </c>
       <c r="E116">
-        <v>46.36000061035156</v>
+        <v>42.2400016784668</v>
       </c>
       <c r="F116">
-        <v>2480500</v>
+        <v>1544800</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>46.95000076293945</v>
+        <v>42.2400016784668</v>
       </c>
       <c r="B117">
-        <v>46.95000076293945</v>
+        <v>43.22999954223633</v>
       </c>
       <c r="C117">
-        <v>44.36000061035156</v>
+        <v>41.91999816894531</v>
       </c>
       <c r="D117">
-        <v>45.13999938964844</v>
+        <v>42.65000152587891</v>
       </c>
       <c r="E117">
-        <v>45.13999938964844</v>
+        <v>42.65000152587891</v>
       </c>
       <c r="F117">
-        <v>2617400</v>
+        <v>1534100</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>44.83000183105469</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="B118">
-        <v>46.08599853515625</v>
+        <v>43.34999847412109</v>
       </c>
       <c r="C118">
-        <v>44.44499969482422</v>
+        <v>42.02000045776367</v>
       </c>
       <c r="D118">
-        <v>45.61999893188477</v>
+        <v>43.08000183105469</v>
       </c>
       <c r="E118">
-        <v>45.61999893188477</v>
+        <v>43.08000183105469</v>
       </c>
       <c r="F118">
-        <v>1405600</v>
+        <v>1774500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>45.81999969482422</v>
+        <v>42.93999862670898</v>
       </c>
       <c r="B119">
-        <v>45.93999862670898</v>
+        <v>43.1150016784668</v>
       </c>
       <c r="C119">
-        <v>43.7599983215332</v>
+        <v>41.56999969482422</v>
       </c>
       <c r="D119">
-        <v>43.97999954223633</v>
+        <v>42.04000091552734</v>
       </c>
       <c r="E119">
-        <v>43.97999954223633</v>
+        <v>42.04000091552734</v>
       </c>
       <c r="F119">
-        <v>2395100</v>
+        <v>1791300</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>43.97999954223633</v>
+        <v>41.5</v>
       </c>
       <c r="B120">
-        <v>45.02000045776367</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="C120">
-        <v>42.72999954223633</v>
+        <v>40.52000045776367</v>
       </c>
       <c r="D120">
-        <v>43.90999984741211</v>
+        <v>42.77000045776367</v>
       </c>
       <c r="E120">
-        <v>43.90999984741211</v>
+        <v>42.77000045776367</v>
       </c>
       <c r="F120">
-        <v>2595100</v>
+        <v>2044700</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>43.90000152587891</v>
+        <v>42.08000183105469</v>
       </c>
       <c r="B121">
-        <v>45.06999969482422</v>
+        <v>42.18000030517578</v>
       </c>
       <c r="C121">
-        <v>43.52999877929688</v>
+        <v>39.93000030517578</v>
       </c>
       <c r="D121">
-        <v>44.06999969482422</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="E121">
-        <v>44.06999969482422</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="F121">
-        <v>1753900</v>
+        <v>3545900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>43.75</v>
+        <v>40.41999816894531</v>
       </c>
       <c r="B122">
-        <v>43.77000045776367</v>
+        <v>40.84000015258789</v>
       </c>
       <c r="C122">
-        <v>42.65499877929688</v>
+        <v>39.31999969482422</v>
       </c>
       <c r="D122">
-        <v>43.56999969482422</v>
+        <v>39.43999862670898</v>
       </c>
       <c r="E122">
-        <v>43.56999969482422</v>
+        <v>39.43999862670898</v>
       </c>
       <c r="F122">
-        <v>2189500</v>
+        <v>2082300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>43.38999938964844</v>
+        <v>39.5099983215332</v>
       </c>
       <c r="B123">
-        <v>44.43000030517578</v>
+        <v>41.09000015258789</v>
       </c>
       <c r="C123">
-        <v>42.83000183105469</v>
+        <v>39.31000137329102</v>
       </c>
       <c r="D123">
-        <v>44.27999877929688</v>
+        <v>40.43999862670898</v>
       </c>
       <c r="E123">
-        <v>44.27999877929688</v>
+        <v>40.43999862670898</v>
       </c>
       <c r="F123">
-        <v>1995800</v>
+        <v>2004600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>44.47999954223633</v>
+        <v>41</v>
       </c>
       <c r="B124">
-        <v>45.18999862670898</v>
+        <v>41</v>
       </c>
       <c r="C124">
-        <v>43.68000030517578</v>
+        <v>39.47999954223633</v>
       </c>
       <c r="D124">
-        <v>44.86999893188477</v>
+        <v>40.56000137329102</v>
       </c>
       <c r="E124">
-        <v>44.86999893188477</v>
+        <v>40.56000137329102</v>
       </c>
       <c r="F124">
-        <v>3753500</v>
+        <v>1912100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>43.61000061035156</v>
+        <v>39.68000030517578</v>
       </c>
       <c r="B125">
-        <v>44.5</v>
+        <v>39.86999893188477</v>
       </c>
       <c r="C125">
-        <v>41.91999816894531</v>
+        <v>36.61999893188477</v>
       </c>
       <c r="D125">
-        <v>42.43999862670898</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="E125">
-        <v>42.43999862670898</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="F125">
-        <v>2796100</v>
+        <v>4967300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>42.72999954223633</v>
+        <v>36.79000091552734</v>
       </c>
       <c r="B126">
-        <v>43.7400016784668</v>
+        <v>38.97999954223633</v>
       </c>
       <c r="C126">
-        <v>42.20000076293945</v>
+        <v>36.77999877929688</v>
       </c>
       <c r="D126">
-        <v>42.2400016784668</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="E126">
-        <v>42.2400016784668</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="F126">
-        <v>1544800</v>
+        <v>2964100</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>42.2400016784668</v>
+        <v>37.5099983215332</v>
       </c>
       <c r="B127">
-        <v>43.22999954223633</v>
+        <v>39.86999893188477</v>
       </c>
       <c r="C127">
-        <v>41.91999816894531</v>
+        <v>37.09999847412109</v>
       </c>
       <c r="D127">
-        <v>42.65000152587891</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="E127">
-        <v>42.65000152587891</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="F127">
-        <v>1534100</v>
+        <v>2486800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>42.83000183105469</v>
+        <v>40</v>
       </c>
       <c r="B128">
-        <v>43.34999847412109</v>
+        <v>41.08000183105469</v>
       </c>
       <c r="C128">
-        <v>42.02000045776367</v>
+        <v>39.75</v>
       </c>
       <c r="D128">
-        <v>43.08000183105469</v>
+        <v>40.61000061035156</v>
       </c>
       <c r="E128">
-        <v>43.08000183105469</v>
+        <v>40.61000061035156</v>
       </c>
       <c r="F128">
-        <v>1774500</v>
+        <v>2353500</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>42.93999862670898</v>
+        <v>40.5</v>
       </c>
       <c r="B129">
-        <v>43.1150016784668</v>
+        <v>40.98500061035156</v>
       </c>
       <c r="C129">
-        <v>41.56999969482422</v>
+        <v>39.97000122070312</v>
       </c>
       <c r="D129">
-        <v>42.04000091552734</v>
+        <v>40.31000137329102</v>
       </c>
       <c r="E129">
-        <v>42.04000091552734</v>
+        <v>40.31000137329102</v>
       </c>
       <c r="F129">
-        <v>1790800</v>
+        <v>1642300</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/FSLY/FSLY_HighLow.xlsx
+++ b/Stocks/FSLY/FSLY_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>68</v>
+        <v>69.54000091552734</v>
       </c>
       <c r="B2">
-        <v>68.01000213623047</v>
+        <v>71.34999847412109</v>
       </c>
       <c r="C2">
-        <v>65.86000061035156</v>
+        <v>66.34100341796875</v>
       </c>
       <c r="D2">
-        <v>67.86000061035156</v>
+        <v>66.66000366210938</v>
       </c>
       <c r="E2">
-        <v>67.86000061035156</v>
+        <v>66.66000366210938</v>
       </c>
       <c r="F2">
-        <v>2568000</v>
+        <v>3043200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>66.54000091552734</v>
+        <v>66.45999908447266</v>
       </c>
       <c r="B3">
-        <v>69.08000183105469</v>
+        <v>68.01000213623047</v>
       </c>
       <c r="C3">
-        <v>66.05999755859375</v>
+        <v>64.69999694824219</v>
       </c>
       <c r="D3">
-        <v>68.91999816894531</v>
+        <v>66.45999908447266</v>
       </c>
       <c r="E3">
-        <v>68.91999816894531</v>
+        <v>66.45999908447266</v>
       </c>
       <c r="F3">
-        <v>3345200</v>
+        <v>2477100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>69.55000305175781</v>
+        <v>65.25</v>
       </c>
       <c r="B4">
-        <v>70.58999633789062</v>
+        <v>67.37000274658203</v>
       </c>
       <c r="C4">
-        <v>67.70999908447266</v>
+        <v>64.72000122070312</v>
       </c>
       <c r="D4">
-        <v>70.16000366210938</v>
+        <v>66.62999725341797</v>
       </c>
       <c r="E4">
-        <v>70.16000366210938</v>
+        <v>66.62999725341797</v>
       </c>
       <c r="F4">
-        <v>2678900</v>
+        <v>1929100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>70.69999694824219</v>
+        <v>67.90000152587891</v>
       </c>
       <c r="B5">
-        <v>75.15000152587891</v>
+        <v>69.09999847412109</v>
       </c>
       <c r="C5">
-        <v>70.26999664306641</v>
+        <v>66.51000213623047</v>
       </c>
       <c r="D5">
-        <v>71.91999816894531</v>
+        <v>66.88999938964844</v>
       </c>
       <c r="E5">
-        <v>71.91999816894531</v>
+        <v>66.88999938964844</v>
       </c>
       <c r="F5">
-        <v>5785600</v>
+        <v>2443500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>71.86000061035156</v>
+        <v>67.55000305175781</v>
       </c>
       <c r="B6">
-        <v>72.52999877929688</v>
+        <v>69.29000091552734</v>
       </c>
       <c r="C6">
-        <v>69.41000366210938</v>
+        <v>67.41000366210938</v>
       </c>
       <c r="D6">
-        <v>71.01000213623047</v>
+        <v>68.91999816894531</v>
       </c>
       <c r="E6">
-        <v>71.01000213623047</v>
+        <v>68.91999816894531</v>
       </c>
       <c r="F6">
-        <v>3577500</v>
+        <v>2644500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>71</v>
+        <v>69.62999725341797</v>
       </c>
       <c r="B7">
-        <v>71.62999725341797</v>
+        <v>71.28299713134766</v>
       </c>
       <c r="C7">
-        <v>68.09999847412109</v>
+        <v>68.84999847412109</v>
       </c>
       <c r="D7">
-        <v>70.02999877929688</v>
+        <v>71.12000274658203</v>
       </c>
       <c r="E7">
-        <v>70.02999877929688</v>
+        <v>71.12000274658203</v>
       </c>
       <c r="F7">
-        <v>2933900</v>
+        <v>2318500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>69.54000091552734</v>
+        <v>71.09999847412109</v>
       </c>
       <c r="B8">
-        <v>71.34999847412109</v>
+        <v>72.08000183105469</v>
       </c>
       <c r="C8">
-        <v>66.34100341796875</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>66.66000366210938</v>
+        <v>70.73000335693359</v>
       </c>
       <c r="E8">
-        <v>66.66000366210938</v>
+        <v>70.73000335693359</v>
       </c>
       <c r="F8">
-        <v>3043200</v>
+        <v>2063600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>66.45999908447266</v>
+        <v>66.68000030517578</v>
       </c>
       <c r="B9">
-        <v>68.01000213623047</v>
+        <v>68.55000305175781</v>
       </c>
       <c r="C9">
-        <v>64.69999694824219</v>
+        <v>66.30999755859375</v>
       </c>
       <c r="D9">
-        <v>66.45999908447266</v>
+        <v>67.77999877929688</v>
       </c>
       <c r="E9">
-        <v>66.45999908447266</v>
+        <v>67.77999877929688</v>
       </c>
       <c r="F9">
-        <v>2477100</v>
+        <v>4396200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>65.25</v>
+        <v>68</v>
       </c>
       <c r="B10">
-        <v>67.37000274658203</v>
+        <v>68</v>
       </c>
       <c r="C10">
-        <v>64.72000122070312</v>
+        <v>63.93000030517578</v>
       </c>
       <c r="D10">
-        <v>66.62999725341797</v>
+        <v>65.05000305175781</v>
       </c>
       <c r="E10">
-        <v>66.62999725341797</v>
+        <v>65.05000305175781</v>
       </c>
       <c r="F10">
-        <v>1929100</v>
+        <v>3902000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>67.90000152587891</v>
+        <v>64.69999694824219</v>
       </c>
       <c r="B11">
-        <v>69.09999847412109</v>
+        <v>66.59999847412109</v>
       </c>
       <c r="C11">
-        <v>66.51000213623047</v>
+        <v>63.56000137329102</v>
       </c>
       <c r="D11">
-        <v>66.88999938964844</v>
+        <v>63.86999893188477</v>
       </c>
       <c r="E11">
-        <v>66.88999938964844</v>
+        <v>63.86999893188477</v>
       </c>
       <c r="F11">
-        <v>2443500</v>
+        <v>2977700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>67.55000305175781</v>
+        <v>63.86999893188477</v>
       </c>
       <c r="B12">
-        <v>69.29000091552734</v>
+        <v>63.9900016784668</v>
       </c>
       <c r="C12">
-        <v>67.41000366210938</v>
+        <v>60.84999847412109</v>
       </c>
       <c r="D12">
-        <v>68.91999816894531</v>
+        <v>61.72000122070312</v>
       </c>
       <c r="E12">
-        <v>68.91999816894531</v>
+        <v>61.72000122070312</v>
       </c>
       <c r="F12">
-        <v>2644500</v>
+        <v>4283800</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>69.62999725341797</v>
+        <v>60.81999969482422</v>
       </c>
       <c r="B13">
-        <v>71.28299713134766</v>
+        <v>61.02999877929688</v>
       </c>
       <c r="C13">
-        <v>68.84999847412109</v>
+        <v>57.34000015258789</v>
       </c>
       <c r="D13">
-        <v>71.12000274658203</v>
+        <v>59.29000091552734</v>
       </c>
       <c r="E13">
-        <v>71.12000274658203</v>
+        <v>59.29000091552734</v>
       </c>
       <c r="F13">
-        <v>2318500</v>
+        <v>4430500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>71.09999847412109</v>
+        <v>61.33000183105469</v>
       </c>
       <c r="B14">
-        <v>72.08000183105469</v>
+        <v>62.2599983215332</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>57.70999908447266</v>
       </c>
       <c r="D14">
-        <v>70.73000335693359</v>
+        <v>58.06000137329102</v>
       </c>
       <c r="E14">
-        <v>70.73000335693359</v>
+        <v>58.06000137329102</v>
       </c>
       <c r="F14">
-        <v>2063600</v>
+        <v>7300900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>66.68000030517578</v>
+        <v>47.33000183105469</v>
       </c>
       <c r="B15">
-        <v>68.55000305175781</v>
+        <v>48.5</v>
       </c>
       <c r="C15">
-        <v>66.30999755859375</v>
+        <v>41.40999984741211</v>
       </c>
       <c r="D15">
-        <v>67.77999877929688</v>
+        <v>42.31000137329102</v>
       </c>
       <c r="E15">
-        <v>67.77999877929688</v>
+        <v>42.31000137329102</v>
       </c>
       <c r="F15">
-        <v>4396200</v>
+        <v>32319600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>68</v>
+        <v>41.7400016784668</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>44.45000076293945</v>
       </c>
       <c r="C16">
-        <v>63.93000030517578</v>
+        <v>41.15999984741211</v>
       </c>
       <c r="D16">
-        <v>65.05000305175781</v>
+        <v>41.88000106811523</v>
       </c>
       <c r="E16">
-        <v>65.05000305175781</v>
+        <v>41.88000106811523</v>
       </c>
       <c r="F16">
-        <v>3902000</v>
+        <v>12869300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>64.69999694824219</v>
+        <v>42.18000030517578</v>
       </c>
       <c r="B17">
-        <v>66.59999847412109</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="C17">
-        <v>63.56000137329102</v>
+        <v>40.20999908447266</v>
       </c>
       <c r="D17">
-        <v>63.86999893188477</v>
+        <v>42.22000122070312</v>
       </c>
       <c r="E17">
-        <v>63.86999893188477</v>
+        <v>42.22000122070312</v>
       </c>
       <c r="F17">
-        <v>2977700</v>
+        <v>9420600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>63.86999893188477</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="B18">
-        <v>63.9900016784668</v>
+        <v>46.91999816894531</v>
       </c>
       <c r="C18">
-        <v>60.84999847412109</v>
+        <v>40.72999954223633</v>
       </c>
       <c r="D18">
-        <v>61.72000122070312</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="E18">
-        <v>61.72000122070312</v>
+        <v>46.34999847412109</v>
       </c>
       <c r="F18">
-        <v>4283800</v>
+        <v>10515000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>60.81999969482422</v>
+        <v>45</v>
       </c>
       <c r="B19">
-        <v>61.02999877929688</v>
+        <v>45.4900016784668</v>
       </c>
       <c r="C19">
-        <v>57.34000015258789</v>
+        <v>41.38999938964844</v>
       </c>
       <c r="D19">
-        <v>59.29000091552734</v>
+        <v>41.45000076293945</v>
       </c>
       <c r="E19">
-        <v>59.29000091552734</v>
+        <v>41.45000076293945</v>
       </c>
       <c r="F19">
-        <v>4430500</v>
+        <v>7313900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>61.33000183105469</v>
+        <v>41.93000030517578</v>
       </c>
       <c r="B20">
-        <v>62.2599983215332</v>
+        <v>43.29999923706055</v>
       </c>
       <c r="C20">
-        <v>57.70999908447266</v>
+        <v>39.4739990234375</v>
       </c>
       <c r="D20">
-        <v>58.06000137329102</v>
+        <v>39.97999954223633</v>
       </c>
       <c r="E20">
-        <v>58.06000137329102</v>
+        <v>39.97999954223633</v>
       </c>
       <c r="F20">
-        <v>7300900</v>
+        <v>6841400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>47.33000183105469</v>
+        <v>40.52999877929688</v>
       </c>
       <c r="B21">
-        <v>48.5</v>
+        <v>42.79000091552734</v>
       </c>
       <c r="C21">
-        <v>41.40999984741211</v>
+        <v>40.04999923706055</v>
       </c>
       <c r="D21">
-        <v>42.31000137329102</v>
+        <v>42.59999847412109</v>
       </c>
       <c r="E21">
-        <v>42.31000137329102</v>
+        <v>42.59999847412109</v>
       </c>
       <c r="F21">
-        <v>32319600</v>
+        <v>4723900</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>41.7400016784668</v>
+        <v>42.38000106811523</v>
       </c>
       <c r="B22">
-        <v>44.45000076293945</v>
+        <v>43.70500183105469</v>
       </c>
       <c r="C22">
-        <v>41.15999984741211</v>
+        <v>41.13999938964844</v>
       </c>
       <c r="D22">
-        <v>41.88000106811523</v>
+        <v>42.29000091552734</v>
       </c>
       <c r="E22">
-        <v>41.88000106811523</v>
+        <v>42.29000091552734</v>
       </c>
       <c r="F22">
-        <v>12869300</v>
+        <v>2973900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>42.18000030517578</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="B23">
-        <v>44.22000122070312</v>
+        <v>44.52999877929688</v>
       </c>
       <c r="C23">
-        <v>40.20999908447266</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="D23">
-        <v>42.22000122070312</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="E23">
-        <v>42.22000122070312</v>
+        <v>43.70999908447266</v>
       </c>
       <c r="F23">
-        <v>9420600</v>
+        <v>3758200</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>41.79999923706055</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="B24">
-        <v>46.91999816894531</v>
+        <v>43.43000030517578</v>
       </c>
       <c r="C24">
-        <v>40.72999954223633</v>
+        <v>41.97999954223633</v>
       </c>
       <c r="D24">
-        <v>46.34999847412109</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="E24">
-        <v>46.34999847412109</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="F24">
-        <v>10515000</v>
+        <v>3450000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>45</v>
+        <v>43.40000152587891</v>
       </c>
       <c r="B25">
-        <v>45.4900016784668</v>
+        <v>44.22999954223633</v>
       </c>
       <c r="C25">
-        <v>41.38999938964844</v>
+        <v>42.68999862670898</v>
       </c>
       <c r="D25">
-        <v>41.45000076293945</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="E25">
-        <v>41.45000076293945</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="F25">
-        <v>7313900</v>
+        <v>2790300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>41.93000030517578</v>
+        <v>44</v>
       </c>
       <c r="B26">
-        <v>43.29999923706055</v>
+        <v>45.40000152587891</v>
       </c>
       <c r="C26">
-        <v>39.4739990234375</v>
+        <v>43.13000106811523</v>
       </c>
       <c r="D26">
-        <v>39.97999954223633</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="E26">
-        <v>39.97999954223633</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="F26">
-        <v>6841400</v>
+        <v>3630200</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>40.52999877929688</v>
+        <v>45</v>
       </c>
       <c r="B27">
-        <v>42.79000091552734</v>
+        <v>46.52000045776367</v>
       </c>
       <c r="C27">
-        <v>40.04999923706055</v>
+        <v>44.59999847412109</v>
       </c>
       <c r="D27">
-        <v>42.59999847412109</v>
+        <v>45.72999954223633</v>
       </c>
       <c r="E27">
-        <v>42.59999847412109</v>
+        <v>45.72999954223633</v>
       </c>
       <c r="F27">
-        <v>4723900</v>
+        <v>3126500</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>42.38000106811523</v>
+        <v>45.91999816894531</v>
       </c>
       <c r="B28">
-        <v>43.70500183105469</v>
+        <v>46.45000076293945</v>
       </c>
       <c r="C28">
-        <v>41.13999938964844</v>
+        <v>44.93000030517578</v>
       </c>
       <c r="D28">
-        <v>42.29000091552734</v>
+        <v>45.20999908447266</v>
       </c>
       <c r="E28">
-        <v>42.29000091552734</v>
+        <v>45.20999908447266</v>
       </c>
       <c r="F28">
-        <v>2973900</v>
+        <v>2303000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>42.68999862670898</v>
+        <v>45.56999969482422</v>
       </c>
       <c r="B29">
-        <v>44.52999877929688</v>
+        <v>48.33000183105469</v>
       </c>
       <c r="C29">
-        <v>41.95000076293945</v>
+        <v>45.11999893188477</v>
       </c>
       <c r="D29">
-        <v>43.70999908447266</v>
+        <v>47.27000045776367</v>
       </c>
       <c r="E29">
-        <v>43.70999908447266</v>
+        <v>47.27000045776367</v>
       </c>
       <c r="F29">
-        <v>3758200</v>
+        <v>3977500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>42.43999862670898</v>
+        <v>46.20000076293945</v>
       </c>
       <c r="B30">
-        <v>43.43000030517578</v>
+        <v>48.70999908447266</v>
       </c>
       <c r="C30">
-        <v>41.97999954223633</v>
+        <v>45.36000061035156</v>
       </c>
       <c r="D30">
-        <v>43.09999847412109</v>
+        <v>48.22999954223633</v>
       </c>
       <c r="E30">
-        <v>43.09999847412109</v>
+        <v>48.22999954223633</v>
       </c>
       <c r="F30">
-        <v>3450000</v>
+        <v>3393800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>43.40000152587891</v>
+        <v>48.34000015258789</v>
       </c>
       <c r="B31">
-        <v>44.22999954223633</v>
+        <v>49.5099983215332</v>
       </c>
       <c r="C31">
-        <v>42.68999862670898</v>
+        <v>47.02999877929688</v>
       </c>
       <c r="D31">
-        <v>43.77999877929688</v>
+        <v>47.18999862670898</v>
       </c>
       <c r="E31">
-        <v>43.77999877929688</v>
+        <v>47.18999862670898</v>
       </c>
       <c r="F31">
-        <v>2790300</v>
+        <v>3322300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>44</v>
+        <v>46.9900016784668</v>
       </c>
       <c r="B32">
-        <v>45.40000152587891</v>
+        <v>47.81000137329102</v>
       </c>
       <c r="C32">
-        <v>43.13000106811523</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="D32">
-        <v>44.86999893188477</v>
+        <v>47.29000091552734</v>
       </c>
       <c r="E32">
-        <v>44.86999893188477</v>
+        <v>47.29000091552734</v>
       </c>
       <c r="F32">
-        <v>3630200</v>
+        <v>3435200</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>45</v>
+        <v>47.22999954223633</v>
       </c>
       <c r="B33">
-        <v>46.52000045776367</v>
+        <v>48.86999893188477</v>
       </c>
       <c r="C33">
-        <v>44.59999847412109</v>
+        <v>46.31999969482422</v>
       </c>
       <c r="D33">
-        <v>45.72999954223633</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="E33">
-        <v>45.72999954223633</v>
+        <v>48.77000045776367</v>
       </c>
       <c r="F33">
-        <v>3126500</v>
+        <v>3803700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>45.91999816894531</v>
+        <v>48.4900016784668</v>
       </c>
       <c r="B34">
-        <v>46.45000076293945</v>
+        <v>49.38000106811523</v>
       </c>
       <c r="C34">
-        <v>44.93000030517578</v>
+        <v>47.43999862670898</v>
       </c>
       <c r="D34">
-        <v>45.20999908447266</v>
+        <v>47.61999893188477</v>
       </c>
       <c r="E34">
-        <v>45.20999908447266</v>
+        <v>47.61999893188477</v>
       </c>
       <c r="F34">
-        <v>2303000</v>
+        <v>4135300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>45.56999969482422</v>
+        <v>47.72000122070312</v>
       </c>
       <c r="B35">
-        <v>48.33000183105469</v>
+        <v>48.21500015258789</v>
       </c>
       <c r="C35">
-        <v>45.11999893188477</v>
+        <v>47.11000061035156</v>
       </c>
       <c r="D35">
-        <v>47.27000045776367</v>
+        <v>47.31000137329102</v>
       </c>
       <c r="E35">
-        <v>47.27000045776367</v>
+        <v>47.31000137329102</v>
       </c>
       <c r="F35">
-        <v>3977500</v>
+        <v>2545800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>46.20000076293945</v>
+        <v>47.31000137329102</v>
       </c>
       <c r="B36">
-        <v>48.70999908447266</v>
+        <v>51.27999877929688</v>
       </c>
       <c r="C36">
-        <v>45.36000061035156</v>
+        <v>46.29000091552734</v>
       </c>
       <c r="D36">
-        <v>48.22999954223633</v>
+        <v>50.70000076293945</v>
       </c>
       <c r="E36">
-        <v>48.22999954223633</v>
+        <v>50.70000076293945</v>
       </c>
       <c r="F36">
-        <v>3393800</v>
+        <v>5597700</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>48.34000015258789</v>
+        <v>49.90999984741211</v>
       </c>
       <c r="B37">
-        <v>49.5099983215332</v>
+        <v>56.97999954223633</v>
       </c>
       <c r="C37">
-        <v>47.02999877929688</v>
+        <v>49.7599983215332</v>
       </c>
       <c r="D37">
-        <v>47.18999862670898</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="E37">
-        <v>47.18999862670898</v>
+        <v>56.20000076293945</v>
       </c>
       <c r="F37">
-        <v>3322300</v>
+        <v>15154900</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>46.9900016784668</v>
+        <v>58.95000076293945</v>
       </c>
       <c r="B38">
-        <v>47.81000137329102</v>
+        <v>59.15999984741211</v>
       </c>
       <c r="C38">
-        <v>45.59999847412109</v>
+        <v>54.54999923706055</v>
       </c>
       <c r="D38">
-        <v>47.29000091552734</v>
+        <v>54.68999862670898</v>
       </c>
       <c r="E38">
-        <v>47.29000091552734</v>
+        <v>54.68999862670898</v>
       </c>
       <c r="F38">
-        <v>3435200</v>
+        <v>9037900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>47.22999954223633</v>
+        <v>51.79999923706055</v>
       </c>
       <c r="B39">
-        <v>48.86999893188477</v>
+        <v>54.73300170898438</v>
       </c>
       <c r="C39">
-        <v>46.31999969482422</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="D39">
-        <v>48.77000045776367</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="E39">
-        <v>48.77000045776367</v>
+        <v>53.90999984741211</v>
       </c>
       <c r="F39">
-        <v>3803700</v>
+        <v>5824300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>48.4900016784668</v>
+        <v>53.31000137329102</v>
       </c>
       <c r="B40">
-        <v>49.38000106811523</v>
+        <v>54.59999847412109</v>
       </c>
       <c r="C40">
-        <v>47.43999862670898</v>
+        <v>53.09999847412109</v>
       </c>
       <c r="D40">
-        <v>47.61999893188477</v>
+        <v>54.38000106811523</v>
       </c>
       <c r="E40">
-        <v>47.61999893188477</v>
+        <v>54.38000106811523</v>
       </c>
       <c r="F40">
-        <v>4135300</v>
+        <v>3634800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>47.72000122070312</v>
+        <v>54.56999969482422</v>
       </c>
       <c r="B41">
-        <v>48.21500015258789</v>
+        <v>58.56999969482422</v>
       </c>
       <c r="C41">
-        <v>47.11000061035156</v>
+        <v>54.56000137329102</v>
       </c>
       <c r="D41">
-        <v>47.31000137329102</v>
+        <v>57.45000076293945</v>
       </c>
       <c r="E41">
-        <v>47.31000137329102</v>
+        <v>57.45000076293945</v>
       </c>
       <c r="F41">
-        <v>2545800</v>
+        <v>6038800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>47.31000137329102</v>
+        <v>57.84999847412109</v>
       </c>
       <c r="B42">
-        <v>51.27999877929688</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="C42">
-        <v>46.29000091552734</v>
+        <v>54.2599983215332</v>
       </c>
       <c r="D42">
-        <v>50.70000076293945</v>
+        <v>54.52999877929688</v>
       </c>
       <c r="E42">
-        <v>50.70000076293945</v>
+        <v>54.52999877929688</v>
       </c>
       <c r="F42">
-        <v>5597700</v>
+        <v>4166800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>49.90999984741211</v>
+        <v>54.31000137329102</v>
       </c>
       <c r="B43">
-        <v>56.97999954223633</v>
+        <v>56.54000091552734</v>
       </c>
       <c r="C43">
-        <v>49.7599983215332</v>
+        <v>53.68999862670898</v>
       </c>
       <c r="D43">
-        <v>56.20000076293945</v>
+        <v>55.47999954223633</v>
       </c>
       <c r="E43">
-        <v>56.20000076293945</v>
+        <v>55.47999954223633</v>
       </c>
       <c r="F43">
-        <v>15154900</v>
+        <v>3544600</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>58.95000076293945</v>
+        <v>54.93000030517578</v>
       </c>
       <c r="B44">
-        <v>59.15999984741211</v>
+        <v>57.86999893188477</v>
       </c>
       <c r="C44">
-        <v>54.54999923706055</v>
+        <v>54.77099990844727</v>
       </c>
       <c r="D44">
-        <v>54.68999862670898</v>
+        <v>57.20999908447266</v>
       </c>
       <c r="E44">
-        <v>54.68999862670898</v>
+        <v>57.20999908447266</v>
       </c>
       <c r="F44">
-        <v>9037900</v>
+        <v>3460000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>51.79999923706055</v>
+        <v>57.89599990844727</v>
       </c>
       <c r="B45">
-        <v>54.73300170898438</v>
+        <v>58.40000152587891</v>
       </c>
       <c r="C45">
-        <v>51.52000045776367</v>
+        <v>56.02000045776367</v>
       </c>
       <c r="D45">
-        <v>53.90999984741211</v>
+        <v>56.95999908447266</v>
       </c>
       <c r="E45">
-        <v>53.90999984741211</v>
+        <v>56.95999908447266</v>
       </c>
       <c r="F45">
-        <v>5824300</v>
+        <v>6395500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>53.31000137329102</v>
+        <v>56.75</v>
       </c>
       <c r="B46">
-        <v>54.59999847412109</v>
+        <v>57.22999954223633</v>
       </c>
       <c r="C46">
-        <v>53.09999847412109</v>
+        <v>54.45800018310547</v>
       </c>
       <c r="D46">
-        <v>54.38000106811523</v>
+        <v>55.90000152587891</v>
       </c>
       <c r="E46">
-        <v>54.38000106811523</v>
+        <v>55.90000152587891</v>
       </c>
       <c r="F46">
-        <v>3634800</v>
+        <v>3265400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>54.56999969482422</v>
+        <v>55.79000091552734</v>
       </c>
       <c r="B47">
-        <v>58.56999969482422</v>
+        <v>57.83000183105469</v>
       </c>
       <c r="C47">
-        <v>54.56000137329102</v>
+        <v>55.36999893188477</v>
       </c>
       <c r="D47">
-        <v>57.45000076293945</v>
+        <v>56.27000045776367</v>
       </c>
       <c r="E47">
-        <v>57.45000076293945</v>
+        <v>56.27000045776367</v>
       </c>
       <c r="F47">
-        <v>6038800</v>
+        <v>2867500</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>57.84999847412109</v>
+        <v>57.15999984741211</v>
       </c>
       <c r="B48">
-        <v>58.09999847412109</v>
+        <v>58.56800079345703</v>
       </c>
       <c r="C48">
-        <v>54.2599983215332</v>
+        <v>56.45000076293945</v>
       </c>
       <c r="D48">
-        <v>54.52999877929688</v>
+        <v>57.13000106811523</v>
       </c>
       <c r="E48">
-        <v>54.52999877929688</v>
+        <v>57.13000106811523</v>
       </c>
       <c r="F48">
-        <v>4166800</v>
+        <v>3123900</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>54.31000137329102</v>
+        <v>57.66999816894531</v>
       </c>
       <c r="B49">
-        <v>56.54000091552734</v>
+        <v>61.38000106811523</v>
       </c>
       <c r="C49">
-        <v>53.68999862670898</v>
+        <v>57.54999923706055</v>
       </c>
       <c r="D49">
-        <v>55.47999954223633</v>
+        <v>59.20999908447266</v>
       </c>
       <c r="E49">
-        <v>55.47999954223633</v>
+        <v>59.20999908447266</v>
       </c>
       <c r="F49">
-        <v>3544600</v>
+        <v>6056400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>54.93000030517578</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>57.86999893188477</v>
+        <v>60.86000061035156</v>
       </c>
       <c r="C50">
-        <v>54.77099990844727</v>
+        <v>58.33000183105469</v>
       </c>
       <c r="D50">
-        <v>57.20999908447266</v>
+        <v>60.63999938964844</v>
       </c>
       <c r="E50">
-        <v>57.20999908447266</v>
+        <v>60.63999938964844</v>
       </c>
       <c r="F50">
-        <v>3460000</v>
+        <v>7250700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>57.89599990844727</v>
+        <v>61.18000030517578</v>
       </c>
       <c r="B51">
-        <v>58.40000152587891</v>
+        <v>62.16999816894531</v>
       </c>
       <c r="C51">
-        <v>56.02000045776367</v>
+        <v>60.68000030517578</v>
       </c>
       <c r="D51">
-        <v>56.95999908447266</v>
+        <v>61.08000183105469</v>
       </c>
       <c r="E51">
-        <v>56.95999908447266</v>
+        <v>61.08000183105469</v>
       </c>
       <c r="F51">
-        <v>6395500</v>
+        <v>3332600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>56.75</v>
+        <v>60.97999954223633</v>
       </c>
       <c r="B52">
-        <v>57.22999954223633</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>54.45800018310547</v>
+        <v>59.31999969482422</v>
       </c>
       <c r="D52">
-        <v>55.90000152587891</v>
+        <v>60.41999816894531</v>
       </c>
       <c r="E52">
-        <v>55.90000152587891</v>
+        <v>60.41999816894531</v>
       </c>
       <c r="F52">
-        <v>3265400</v>
+        <v>3032500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>55.79000091552734</v>
+        <v>59.95000076293945</v>
       </c>
       <c r="B53">
-        <v>57.83000183105469</v>
+        <v>64.06999969482422</v>
       </c>
       <c r="C53">
-        <v>55.36999893188477</v>
+        <v>58.33000183105469</v>
       </c>
       <c r="D53">
-        <v>56.27000045776367</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="E53">
-        <v>56.27000045776367</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="F53">
-        <v>2867500</v>
+        <v>8335600</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>57.15999984741211</v>
+        <v>59.58000183105469</v>
       </c>
       <c r="B54">
-        <v>58.56800079345703</v>
+        <v>60.63999938964844</v>
       </c>
       <c r="C54">
-        <v>56.45000076293945</v>
+        <v>57.41999816894531</v>
       </c>
       <c r="D54">
-        <v>57.13000106811523</v>
+        <v>58.02000045776367</v>
       </c>
       <c r="E54">
-        <v>57.13000106811523</v>
+        <v>58.02000045776367</v>
       </c>
       <c r="F54">
-        <v>3123900</v>
+        <v>3814300</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>57.66999816894531</v>
+        <v>58.33000183105469</v>
       </c>
       <c r="B55">
-        <v>61.38000106811523</v>
+        <v>59.40000152587891</v>
       </c>
       <c r="C55">
-        <v>57.54999923706055</v>
+        <v>55.79899978637695</v>
       </c>
       <c r="D55">
-        <v>59.20999908447266</v>
+        <v>56.47000122070312</v>
       </c>
       <c r="E55">
-        <v>59.20999908447266</v>
+        <v>56.47000122070312</v>
       </c>
       <c r="F55">
-        <v>6056400</v>
+        <v>3930000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>59</v>
+        <v>56.65000152587891</v>
       </c>
       <c r="B56">
-        <v>60.86000061035156</v>
+        <v>58.11999893188477</v>
       </c>
       <c r="C56">
-        <v>58.33000183105469</v>
+        <v>55.31000137329102</v>
       </c>
       <c r="D56">
-        <v>60.63999938964844</v>
+        <v>56.86000061035156</v>
       </c>
       <c r="E56">
-        <v>60.63999938964844</v>
+        <v>56.86000061035156</v>
       </c>
       <c r="F56">
-        <v>7250700</v>
+        <v>2961700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>61.18000030517578</v>
+        <v>57.72999954223633</v>
       </c>
       <c r="B57">
-        <v>62.16999816894531</v>
+        <v>58.09999847412109</v>
       </c>
       <c r="C57">
-        <v>60.68000030517578</v>
+        <v>54.11999893188477</v>
       </c>
       <c r="D57">
-        <v>61.08000183105469</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="E57">
-        <v>61.08000183105469</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="F57">
-        <v>3332600</v>
+        <v>2714500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>60.97999954223633</v>
+        <v>53.25</v>
       </c>
       <c r="B58">
-        <v>62</v>
+        <v>56.13000106811523</v>
       </c>
       <c r="C58">
-        <v>59.31999969482422</v>
+        <v>52.34999847412109</v>
       </c>
       <c r="D58">
-        <v>60.41999816894531</v>
+        <v>54.9900016784668</v>
       </c>
       <c r="E58">
-        <v>60.41999816894531</v>
+        <v>54.9900016784668</v>
       </c>
       <c r="F58">
-        <v>3032500</v>
+        <v>3047900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>59.95000076293945</v>
+        <v>55.29999923706055</v>
       </c>
       <c r="B59">
-        <v>64.06999969482422</v>
+        <v>56.52999877929688</v>
       </c>
       <c r="C59">
-        <v>58.33000183105469</v>
+        <v>54.40000152587891</v>
       </c>
       <c r="D59">
-        <v>59.59999847412109</v>
+        <v>56.38999938964844</v>
       </c>
       <c r="E59">
-        <v>59.59999847412109</v>
+        <v>56.38999938964844</v>
       </c>
       <c r="F59">
-        <v>8335600</v>
+        <v>2345100</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>59.58000183105469</v>
+        <v>56.56000137329102</v>
       </c>
       <c r="B60">
-        <v>60.63999938964844</v>
+        <v>57.13000106811523</v>
       </c>
       <c r="C60">
-        <v>57.41999816894531</v>
+        <v>53.86000061035156</v>
       </c>
       <c r="D60">
-        <v>58.02000045776367</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="E60">
-        <v>58.02000045776367</v>
+        <v>54.36999893188477</v>
       </c>
       <c r="F60">
-        <v>3814300</v>
+        <v>2547500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>58.33000183105469</v>
+        <v>54.29999923706055</v>
       </c>
       <c r="B61">
-        <v>59.40000152587891</v>
+        <v>55.33000183105469</v>
       </c>
       <c r="C61">
-        <v>55.79899978637695</v>
+        <v>53.52000045776367</v>
       </c>
       <c r="D61">
-        <v>56.47000122070312</v>
+        <v>53.70999908447266</v>
       </c>
       <c r="E61">
-        <v>56.47000122070312</v>
+        <v>53.70999908447266</v>
       </c>
       <c r="F61">
-        <v>3930000</v>
+        <v>2144600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>56.65000152587891</v>
+        <v>53.79999923706055</v>
       </c>
       <c r="B62">
-        <v>58.11999893188477</v>
+        <v>53.9900016784668</v>
       </c>
       <c r="C62">
-        <v>55.31000137329102</v>
+        <v>49.84000015258789</v>
       </c>
       <c r="D62">
-        <v>56.86000061035156</v>
+        <v>50.13000106811523</v>
       </c>
       <c r="E62">
-        <v>56.86000061035156</v>
+        <v>50.13000106811523</v>
       </c>
       <c r="F62">
-        <v>2961700</v>
+        <v>4411300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>57.72999954223633</v>
+        <v>49.97999954223633</v>
       </c>
       <c r="B63">
-        <v>58.09999847412109</v>
+        <v>52.18000030517578</v>
       </c>
       <c r="C63">
-        <v>54.11999893188477</v>
+        <v>48.40000152587891</v>
       </c>
       <c r="D63">
-        <v>54.36999893188477</v>
+        <v>49.09999847412109</v>
       </c>
       <c r="E63">
-        <v>54.36999893188477</v>
+        <v>49.09999847412109</v>
       </c>
       <c r="F63">
-        <v>2714500</v>
+        <v>3529900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>53.25</v>
+        <v>49.54000091552734</v>
       </c>
       <c r="B64">
-        <v>56.13000106811523</v>
+        <v>50.47000122070312</v>
       </c>
       <c r="C64">
-        <v>52.34999847412109</v>
+        <v>48.70000076293945</v>
       </c>
       <c r="D64">
-        <v>54.9900016784668</v>
+        <v>49.9900016784668</v>
       </c>
       <c r="E64">
-        <v>54.9900016784668</v>
+        <v>49.9900016784668</v>
       </c>
       <c r="F64">
-        <v>3047900</v>
+        <v>3119900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>55.29999923706055</v>
+        <v>49.02000045776367</v>
       </c>
       <c r="B65">
-        <v>56.52999877929688</v>
+        <v>52.47000122070312</v>
       </c>
       <c r="C65">
-        <v>54.40000152587891</v>
+        <v>48.65999984741211</v>
       </c>
       <c r="D65">
-        <v>56.38999938964844</v>
+        <v>51.20999908447266</v>
       </c>
       <c r="E65">
-        <v>56.38999938964844</v>
+        <v>51.20999908447266</v>
       </c>
       <c r="F65">
-        <v>2345100</v>
+        <v>3378800</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>56.56000137329102</v>
+        <v>51.29999923706055</v>
       </c>
       <c r="B66">
-        <v>57.13000106811523</v>
+        <v>52.18000030517578</v>
       </c>
       <c r="C66">
-        <v>53.86000061035156</v>
+        <v>49.86999893188477</v>
       </c>
       <c r="D66">
-        <v>54.36999893188477</v>
+        <v>51.5</v>
       </c>
       <c r="E66">
-        <v>54.36999893188477</v>
+        <v>51.5</v>
       </c>
       <c r="F66">
-        <v>2547500</v>
+        <v>2218500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>54.29999923706055</v>
+        <v>51.65000152587891</v>
       </c>
       <c r="B67">
-        <v>55.33000183105469</v>
+        <v>52.61999893188477</v>
       </c>
       <c r="C67">
-        <v>53.52000045776367</v>
+        <v>50.88000106811523</v>
       </c>
       <c r="D67">
-        <v>53.70999908447266</v>
+        <v>52.45999908447266</v>
       </c>
       <c r="E67">
-        <v>53.70999908447266</v>
+        <v>52.45999908447266</v>
       </c>
       <c r="F67">
-        <v>2144600</v>
+        <v>2223400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>53.79999923706055</v>
+        <v>52.54999923706055</v>
       </c>
       <c r="B68">
-        <v>53.9900016784668</v>
+        <v>53.5</v>
       </c>
       <c r="C68">
-        <v>49.84000015258789</v>
+        <v>51.91999816894531</v>
       </c>
       <c r="D68">
-        <v>50.13000106811523</v>
+        <v>52.36999893188477</v>
       </c>
       <c r="E68">
-        <v>50.13000106811523</v>
+        <v>52.36999893188477</v>
       </c>
       <c r="F68">
-        <v>4411300</v>
+        <v>2055600</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>49.97999954223633</v>
+        <v>52.15000152587891</v>
       </c>
       <c r="B69">
-        <v>52.18000030517578</v>
+        <v>52.16999816894531</v>
       </c>
       <c r="C69">
-        <v>48.40000152587891</v>
+        <v>49.77000045776367</v>
       </c>
       <c r="D69">
-        <v>49.09999847412109</v>
+        <v>49.81999969482422</v>
       </c>
       <c r="E69">
-        <v>49.09999847412109</v>
+        <v>49.81999969482422</v>
       </c>
       <c r="F69">
-        <v>3529900</v>
+        <v>3744300</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>49.54000091552734</v>
+        <v>49.5</v>
       </c>
       <c r="B70">
-        <v>50.47000122070312</v>
+        <v>49.59000015258789</v>
       </c>
       <c r="C70">
-        <v>48.70000076293945</v>
+        <v>47.75</v>
       </c>
       <c r="D70">
-        <v>49.9900016784668</v>
+        <v>48.97000122070312</v>
       </c>
       <c r="E70">
-        <v>49.9900016784668</v>
+        <v>48.97000122070312</v>
       </c>
       <c r="F70">
-        <v>3119900</v>
+        <v>3316500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>49.02000045776367</v>
+        <v>48.9900016784668</v>
       </c>
       <c r="B71">
-        <v>52.47000122070312</v>
+        <v>49.34999847412109</v>
       </c>
       <c r="C71">
-        <v>48.65999984741211</v>
+        <v>46.43999862670898</v>
       </c>
       <c r="D71">
-        <v>51.20999908447266</v>
+        <v>48.16999816894531</v>
       </c>
       <c r="E71">
-        <v>51.20999908447266</v>
+        <v>48.16999816894531</v>
       </c>
       <c r="F71">
-        <v>3378800</v>
+        <v>2924300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>51.29999923706055</v>
+        <v>48.11000061035156</v>
       </c>
       <c r="B72">
-        <v>52.18000030517578</v>
+        <v>51.04999923706055</v>
       </c>
       <c r="C72">
-        <v>49.86999893188477</v>
+        <v>47.95999908447266</v>
       </c>
       <c r="D72">
-        <v>51.5</v>
+        <v>50.34999847412109</v>
       </c>
       <c r="E72">
-        <v>51.5</v>
+        <v>50.34999847412109</v>
       </c>
       <c r="F72">
-        <v>2218500</v>
+        <v>2920200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>51.65000152587891</v>
+        <v>50.38000106811523</v>
       </c>
       <c r="B73">
-        <v>52.61999893188477</v>
+        <v>51.09000015258789</v>
       </c>
       <c r="C73">
-        <v>50.88000106811523</v>
+        <v>49.04000091552734</v>
       </c>
       <c r="D73">
-        <v>52.45999908447266</v>
+        <v>49.11000061035156</v>
       </c>
       <c r="E73">
-        <v>52.45999908447266</v>
+        <v>49.11000061035156</v>
       </c>
       <c r="F73">
-        <v>2223400</v>
+        <v>2131800</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>52.54999923706055</v>
+        <v>48.63999938964844</v>
       </c>
       <c r="B74">
-        <v>53.5</v>
+        <v>49.52000045776367</v>
       </c>
       <c r="C74">
-        <v>51.91999816894531</v>
+        <v>47.73500061035156</v>
       </c>
       <c r="D74">
-        <v>52.36999893188477</v>
+        <v>48.06999969482422</v>
       </c>
       <c r="E74">
-        <v>52.36999893188477</v>
+        <v>48.06999969482422</v>
       </c>
       <c r="F74">
-        <v>2055600</v>
+        <v>2271600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>52.15000152587891</v>
+        <v>48.43999862670898</v>
       </c>
       <c r="B75">
-        <v>52.16999816894531</v>
+        <v>48.83000183105469</v>
       </c>
       <c r="C75">
-        <v>49.77000045776367</v>
+        <v>46.8390007019043</v>
       </c>
       <c r="D75">
-        <v>49.81999969482422</v>
+        <v>47.36000061035156</v>
       </c>
       <c r="E75">
-        <v>49.81999969482422</v>
+        <v>47.36000061035156</v>
       </c>
       <c r="F75">
-        <v>3744300</v>
+        <v>3365400</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>49.5</v>
+        <v>47.5</v>
       </c>
       <c r="B76">
-        <v>49.59000015258789</v>
+        <v>47.88999938964844</v>
       </c>
       <c r="C76">
-        <v>47.75</v>
+        <v>45.40999984741211</v>
       </c>
       <c r="D76">
-        <v>48.97000122070312</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="E76">
-        <v>48.97000122070312</v>
+        <v>46.22999954223633</v>
       </c>
       <c r="F76">
-        <v>3316500</v>
+        <v>3809600</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>48.9900016784668</v>
+        <v>45.93999862670898</v>
       </c>
       <c r="B77">
-        <v>49.34999847412109</v>
+        <v>46.25</v>
       </c>
       <c r="C77">
-        <v>46.43999862670898</v>
+        <v>43.93999862670898</v>
       </c>
       <c r="D77">
-        <v>48.16999816894531</v>
+        <v>44.54000091552734</v>
       </c>
       <c r="E77">
-        <v>48.16999816894531</v>
+        <v>44.54000091552734</v>
       </c>
       <c r="F77">
-        <v>2924300</v>
+        <v>9944000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>48.11000061035156</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="B78">
-        <v>51.04999923706055</v>
+        <v>42.27000045776367</v>
       </c>
       <c r="C78">
-        <v>47.95999908447266</v>
+        <v>33.86999893188477</v>
       </c>
       <c r="D78">
-        <v>50.34999847412109</v>
+        <v>39.93000030517578</v>
       </c>
       <c r="E78">
-        <v>50.34999847412109</v>
+        <v>39.93000030517578</v>
       </c>
       <c r="F78">
-        <v>2920200</v>
+        <v>50301900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>50.38000106811523</v>
+        <v>39.4900016784668</v>
       </c>
       <c r="B79">
-        <v>51.09000015258789</v>
+        <v>41.95000076293945</v>
       </c>
       <c r="C79">
-        <v>49.04000091552734</v>
+        <v>38.90000152587891</v>
       </c>
       <c r="D79">
-        <v>49.11000061035156</v>
+        <v>41.2400016784668</v>
       </c>
       <c r="E79">
-        <v>49.11000061035156</v>
+        <v>41.2400016784668</v>
       </c>
       <c r="F79">
-        <v>2131800</v>
+        <v>9545400</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>48.63999938964844</v>
+        <v>41.13000106811523</v>
       </c>
       <c r="B80">
-        <v>49.52000045776367</v>
+        <v>44.82600021362305</v>
       </c>
       <c r="C80">
-        <v>47.73500061035156</v>
+        <v>40.97999954223633</v>
       </c>
       <c r="D80">
-        <v>48.06999969482422</v>
+        <v>44.04000091552734</v>
       </c>
       <c r="E80">
-        <v>48.06999969482422</v>
+        <v>44.04000091552734</v>
       </c>
       <c r="F80">
-        <v>2271600</v>
+        <v>8479100</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>48.43999862670898</v>
+        <v>44.27000045776367</v>
       </c>
       <c r="B81">
-        <v>48.83000183105469</v>
+        <v>44.83000183105469</v>
       </c>
       <c r="C81">
-        <v>46.8390007019043</v>
+        <v>41.88999938964844</v>
       </c>
       <c r="D81">
-        <v>47.36000061035156</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="E81">
-        <v>47.36000061035156</v>
+        <v>42.29999923706055</v>
       </c>
       <c r="F81">
-        <v>3365400</v>
+        <v>4525400</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>47.5</v>
+        <v>42.45999908447266</v>
       </c>
       <c r="B82">
-        <v>47.88999938964844</v>
+        <v>43.0890007019043</v>
       </c>
       <c r="C82">
-        <v>45.40999984741211</v>
+        <v>41.27199935913086</v>
       </c>
       <c r="D82">
-        <v>46.22999954223633</v>
+        <v>42.08000183105469</v>
       </c>
       <c r="E82">
-        <v>46.22999954223633</v>
+        <v>42.08000183105469</v>
       </c>
       <c r="F82">
-        <v>3809600</v>
+        <v>2719300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>45.93999862670898</v>
+        <v>41.91999816894531</v>
       </c>
       <c r="B83">
-        <v>46.25</v>
+        <v>43.16999816894531</v>
       </c>
       <c r="C83">
-        <v>43.93999862670898</v>
+        <v>41.70999908447266</v>
       </c>
       <c r="D83">
-        <v>44.54000091552734</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="E83">
-        <v>44.54000091552734</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="F83">
-        <v>9944000</v>
+        <v>2417900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>34.95000076293945</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="B84">
-        <v>42.27000045776367</v>
+        <v>43.25</v>
       </c>
       <c r="C84">
-        <v>33.86999893188477</v>
+        <v>41.63000106811523</v>
       </c>
       <c r="D84">
-        <v>39.93000030517578</v>
+        <v>42.11000061035156</v>
       </c>
       <c r="E84">
-        <v>39.93000030517578</v>
+        <v>42.11000061035156</v>
       </c>
       <c r="F84">
-        <v>50301900</v>
+        <v>2607300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>39.4900016784668</v>
+        <v>41.59999847412109</v>
       </c>
       <c r="B85">
-        <v>41.95000076293945</v>
+        <v>41.59999847412109</v>
       </c>
       <c r="C85">
-        <v>38.90000152587891</v>
+        <v>39.5</v>
       </c>
       <c r="D85">
-        <v>41.2400016784668</v>
+        <v>39.88000106811523</v>
       </c>
       <c r="E85">
-        <v>41.2400016784668</v>
+        <v>39.88000106811523</v>
       </c>
       <c r="F85">
-        <v>9545400</v>
+        <v>5085400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>41.13000106811523</v>
+        <v>39.20000076293945</v>
       </c>
       <c r="B86">
-        <v>44.82600021362305</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="C86">
-        <v>40.97999954223633</v>
+        <v>39</v>
       </c>
       <c r="D86">
-        <v>44.04000091552734</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="E86">
-        <v>44.04000091552734</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="F86">
-        <v>8479100</v>
+        <v>4138200</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>44.27000045776367</v>
+        <v>40.95000076293945</v>
       </c>
       <c r="B87">
-        <v>44.83000183105469</v>
+        <v>41.65999984741211</v>
       </c>
       <c r="C87">
-        <v>41.88999938964844</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="D87">
-        <v>42.29999923706055</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="E87">
-        <v>42.29999923706055</v>
+        <v>40.95999908447266</v>
       </c>
       <c r="F87">
-        <v>4525400</v>
+        <v>3216900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>42.45999908447266</v>
+        <v>41.02000045776367</v>
       </c>
       <c r="B88">
-        <v>43.0890007019043</v>
+        <v>41.20999908447266</v>
       </c>
       <c r="C88">
-        <v>41.27199935913086</v>
+        <v>38.70000076293945</v>
       </c>
       <c r="D88">
-        <v>42.08000183105469</v>
+        <v>39.22000122070312</v>
       </c>
       <c r="E88">
-        <v>42.08000183105469</v>
+        <v>39.22000122070312</v>
       </c>
       <c r="F88">
-        <v>2719300</v>
+        <v>3129100</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>41.91999816894531</v>
+        <v>38.9900016784668</v>
       </c>
       <c r="B89">
-        <v>43.16999816894531</v>
+        <v>41.11000061035156</v>
       </c>
       <c r="C89">
-        <v>41.70999908447266</v>
+        <v>38.97499847412109</v>
       </c>
       <c r="D89">
-        <v>42.97000122070312</v>
+        <v>40.93000030517578</v>
       </c>
       <c r="E89">
-        <v>42.97000122070312</v>
+        <v>40.93000030517578</v>
       </c>
       <c r="F89">
-        <v>2417900</v>
+        <v>3168700</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>42.97000122070312</v>
+        <v>40.77999877929688</v>
       </c>
       <c r="B90">
-        <v>43.25</v>
+        <v>43.5099983215332</v>
       </c>
       <c r="C90">
-        <v>41.63000106811523</v>
+        <v>40.59000015258789</v>
       </c>
       <c r="D90">
-        <v>42.11000061035156</v>
+        <v>43.2599983215332</v>
       </c>
       <c r="E90">
-        <v>42.11000061035156</v>
+        <v>43.2599983215332</v>
       </c>
       <c r="F90">
-        <v>2607300</v>
+        <v>3910400</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>41.59999847412109</v>
+        <v>43.72999954223633</v>
       </c>
       <c r="B91">
-        <v>41.59999847412109</v>
+        <v>44.41999816894531</v>
       </c>
       <c r="C91">
-        <v>39.5</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="D91">
-        <v>39.88000106811523</v>
+        <v>43.83000183105469</v>
       </c>
       <c r="E91">
-        <v>39.88000106811523</v>
+        <v>43.83000183105469</v>
       </c>
       <c r="F91">
-        <v>5085400</v>
+        <v>2942700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>39.20000076293945</v>
+        <v>44.13999938964844</v>
       </c>
       <c r="B92">
-        <v>40.95999908447266</v>
+        <v>45.58000183105469</v>
       </c>
       <c r="C92">
-        <v>39</v>
+        <v>44.05300140380859</v>
       </c>
       <c r="D92">
-        <v>40.95999908447266</v>
+        <v>44.31000137329102</v>
       </c>
       <c r="E92">
-        <v>40.95999908447266</v>
+        <v>44.31000137329102</v>
       </c>
       <c r="F92">
-        <v>4138200</v>
+        <v>3329500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>40.95000076293945</v>
+        <v>44</v>
       </c>
       <c r="B93">
-        <v>41.65999984741211</v>
+        <v>44.65999984741211</v>
       </c>
       <c r="C93">
-        <v>39.95999908447266</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="D93">
-        <v>40.95999908447266</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="E93">
-        <v>40.95999908447266</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="F93">
-        <v>3216900</v>
+        <v>1819100</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>41.02000045776367</v>
+        <v>42.95999908447266</v>
       </c>
       <c r="B94">
-        <v>41.20999908447266</v>
+        <v>44.29999923706055</v>
       </c>
       <c r="C94">
-        <v>38.70000076293945</v>
+        <v>42.63000106811523</v>
       </c>
       <c r="D94">
-        <v>39.22000122070312</v>
+        <v>43.75</v>
       </c>
       <c r="E94">
-        <v>39.22000122070312</v>
+        <v>43.75</v>
       </c>
       <c r="F94">
-        <v>3129100</v>
+        <v>2222100</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>38.9900016784668</v>
+        <v>43.86000061035156</v>
       </c>
       <c r="B95">
-        <v>41.11000061035156</v>
+        <v>44.40000152587891</v>
       </c>
       <c r="C95">
-        <v>38.97499847412109</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="D95">
-        <v>40.93000030517578</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="E95">
-        <v>40.93000030517578</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="F95">
-        <v>3168700</v>
+        <v>1905500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>40.77999877929688</v>
+        <v>43.2599983215332</v>
       </c>
       <c r="B96">
-        <v>43.5099983215332</v>
+        <v>44.02999877929688</v>
       </c>
       <c r="C96">
-        <v>40.59000015258789</v>
+        <v>42.88999938964844</v>
       </c>
       <c r="D96">
-        <v>43.2599983215332</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="E96">
-        <v>43.2599983215332</v>
+        <v>43.59999847412109</v>
       </c>
       <c r="F96">
-        <v>3910400</v>
+        <v>1891900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>43.72999954223633</v>
+        <v>44.20999908447266</v>
       </c>
       <c r="B97">
-        <v>44.41999816894531</v>
+        <v>47.04000091552734</v>
       </c>
       <c r="C97">
-        <v>43.09999847412109</v>
+        <v>43.83000183105469</v>
       </c>
       <c r="D97">
-        <v>43.83000183105469</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="E97">
-        <v>43.83000183105469</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="F97">
-        <v>2942700</v>
+        <v>4215700</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>44.13999938964844</v>
+        <v>45.83000183105469</v>
       </c>
       <c r="B98">
-        <v>45.58000183105469</v>
+        <v>48.22999954223633</v>
       </c>
       <c r="C98">
-        <v>44.05300140380859</v>
+        <v>45.7400016784668</v>
       </c>
       <c r="D98">
-        <v>44.31000137329102</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="E98">
-        <v>44.31000137329102</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="F98">
-        <v>3329500</v>
+        <v>5613400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>44</v>
+        <v>46.58000183105469</v>
       </c>
       <c r="B99">
-        <v>44.65999984741211</v>
+        <v>47.52999877929688</v>
       </c>
       <c r="C99">
-        <v>42.79999923706055</v>
+        <v>46.13999938964844</v>
       </c>
       <c r="D99">
-        <v>43.09999847412109</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="E99">
-        <v>43.09999847412109</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="F99">
-        <v>1819100</v>
+        <v>2003800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>42.95999908447266</v>
+        <v>46.68999862670898</v>
       </c>
       <c r="B100">
-        <v>44.29999923706055</v>
+        <v>47.25</v>
       </c>
       <c r="C100">
-        <v>42.63000106811523</v>
+        <v>45.86000061035156</v>
       </c>
       <c r="D100">
-        <v>43.75</v>
+        <v>46.36000061035156</v>
       </c>
       <c r="E100">
-        <v>43.75</v>
+        <v>46.36000061035156</v>
       </c>
       <c r="F100">
-        <v>2222100</v>
+        <v>2480500</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>43.86000061035156</v>
+        <v>46.95000076293945</v>
       </c>
       <c r="B101">
-        <v>44.40000152587891</v>
+        <v>46.95000076293945</v>
       </c>
       <c r="C101">
-        <v>42.79999923706055</v>
+        <v>44.36000061035156</v>
       </c>
       <c r="D101">
-        <v>43.59999847412109</v>
+        <v>45.13999938964844</v>
       </c>
       <c r="E101">
-        <v>43.59999847412109</v>
+        <v>45.13999938964844</v>
       </c>
       <c r="F101">
-        <v>1905500</v>
+        <v>2617400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>43.2599983215332</v>
+        <v>44.83000183105469</v>
       </c>
       <c r="B102">
-        <v>44.02999877929688</v>
+        <v>46.08599853515625</v>
       </c>
       <c r="C102">
-        <v>42.88999938964844</v>
+        <v>44.44499969482422</v>
       </c>
       <c r="D102">
-        <v>43.59999847412109</v>
+        <v>45.61999893188477</v>
       </c>
       <c r="E102">
-        <v>43.59999847412109</v>
+        <v>45.61999893188477</v>
       </c>
       <c r="F102">
-        <v>1891900</v>
+        <v>1405600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>44.20999908447266</v>
+        <v>45.81999969482422</v>
       </c>
       <c r="B103">
-        <v>47.04000091552734</v>
+        <v>45.93999862670898</v>
       </c>
       <c r="C103">
-        <v>43.83000183105469</v>
+        <v>43.7599983215332</v>
       </c>
       <c r="D103">
-        <v>45.7400016784668</v>
+        <v>43.97999954223633</v>
       </c>
       <c r="E103">
-        <v>45.7400016784668</v>
+        <v>43.97999954223633</v>
       </c>
       <c r="F103">
-        <v>4215700</v>
+        <v>2395100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>45.83000183105469</v>
+        <v>43.97999954223633</v>
       </c>
       <c r="B104">
-        <v>48.22999954223633</v>
+        <v>45.02000045776367</v>
       </c>
       <c r="C104">
-        <v>45.7400016784668</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="D104">
-        <v>47.2599983215332</v>
+        <v>43.90999984741211</v>
       </c>
       <c r="E104">
-        <v>47.2599983215332</v>
+        <v>43.90999984741211</v>
       </c>
       <c r="F104">
-        <v>5613400</v>
+        <v>2595100</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>46.58000183105469</v>
+        <v>43.90000152587891</v>
       </c>
       <c r="B105">
-        <v>47.52999877929688</v>
+        <v>45.06999969482422</v>
       </c>
       <c r="C105">
-        <v>46.13999938964844</v>
+        <v>43.52999877929688</v>
       </c>
       <c r="D105">
-        <v>46.68999862670898</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="E105">
-        <v>46.68999862670898</v>
+        <v>44.06999969482422</v>
       </c>
       <c r="F105">
-        <v>2003800</v>
+        <v>1753900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>46.68999862670898</v>
+        <v>43.75</v>
       </c>
       <c r="B106">
-        <v>47.25</v>
+        <v>43.77000045776367</v>
       </c>
       <c r="C106">
-        <v>45.86000061035156</v>
+        <v>42.65499877929688</v>
       </c>
       <c r="D106">
-        <v>46.36000061035156</v>
+        <v>43.56999969482422</v>
       </c>
       <c r="E106">
-        <v>46.36000061035156</v>
+        <v>43.56999969482422</v>
       </c>
       <c r="F106">
-        <v>2480500</v>
+        <v>2189500</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>46.95000076293945</v>
+        <v>43.38999938964844</v>
       </c>
       <c r="B107">
-        <v>46.95000076293945</v>
+        <v>44.43000030517578</v>
       </c>
       <c r="C107">
-        <v>44.36000061035156</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="D107">
-        <v>45.13999938964844</v>
+        <v>44.27999877929688</v>
       </c>
       <c r="E107">
-        <v>45.13999938964844</v>
+        <v>44.27999877929688</v>
       </c>
       <c r="F107">
-        <v>2617400</v>
+        <v>1995800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>44.83000183105469</v>
+        <v>44.47999954223633</v>
       </c>
       <c r="B108">
-        <v>46.08599853515625</v>
+        <v>45.18999862670898</v>
       </c>
       <c r="C108">
-        <v>44.44499969482422</v>
+        <v>43.68000030517578</v>
       </c>
       <c r="D108">
-        <v>45.61999893188477</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="E108">
-        <v>45.61999893188477</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="F108">
-        <v>1405600</v>
+        <v>3753500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>45.81999969482422</v>
+        <v>43.61000061035156</v>
       </c>
       <c r="B109">
-        <v>45.93999862670898</v>
+        <v>44.5</v>
       </c>
       <c r="C109">
-        <v>43.7599983215332</v>
+        <v>41.91999816894531</v>
       </c>
       <c r="D109">
-        <v>43.97999954223633</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="E109">
-        <v>43.97999954223633</v>
+        <v>42.43999862670898</v>
       </c>
       <c r="F109">
-        <v>2395100</v>
+        <v>2796100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>43.97999954223633</v>
+        <v>42.72999954223633</v>
       </c>
       <c r="B110">
-        <v>45.02000045776367</v>
+        <v>43.7400016784668</v>
       </c>
       <c r="C110">
-        <v>42.72999954223633</v>
+        <v>42.20000076293945</v>
       </c>
       <c r="D110">
-        <v>43.90999984741211</v>
+        <v>42.2400016784668</v>
       </c>
       <c r="E110">
-        <v>43.90999984741211</v>
+        <v>42.2400016784668</v>
       </c>
       <c r="F110">
-        <v>2595100</v>
+        <v>1544800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>43.90000152587891</v>
+        <v>42.2400016784668</v>
       </c>
       <c r="B111">
-        <v>45.06999969482422</v>
+        <v>43.22999954223633</v>
       </c>
       <c r="C111">
-        <v>43.52999877929688</v>
+        <v>41.91999816894531</v>
       </c>
       <c r="D111">
-        <v>44.06999969482422</v>
+        <v>42.65000152587891</v>
       </c>
       <c r="E111">
-        <v>44.06999969482422</v>
+        <v>42.65000152587891</v>
       </c>
       <c r="F111">
-        <v>1753900</v>
+        <v>1534100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>43.75</v>
+        <v>42.83000183105469</v>
       </c>
       <c r="B112">
-        <v>43.77000045776367</v>
+        <v>43.34999847412109</v>
       </c>
       <c r="C112">
-        <v>42.65499877929688</v>
+        <v>42.02000045776367</v>
       </c>
       <c r="D112">
-        <v>43.56999969482422</v>
+        <v>43.08000183105469</v>
       </c>
       <c r="E112">
-        <v>43.56999969482422</v>
+        <v>43.08000183105469</v>
       </c>
       <c r="F112">
-        <v>2189500</v>
+        <v>1774500</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>43.38999938964844</v>
+        <v>42.93999862670898</v>
       </c>
       <c r="B113">
-        <v>44.43000030517578</v>
+        <v>43.1150016784668</v>
       </c>
       <c r="C113">
-        <v>42.83000183105469</v>
+        <v>41.56999969482422</v>
       </c>
       <c r="D113">
-        <v>44.27999877929688</v>
+        <v>42.04000091552734</v>
       </c>
       <c r="E113">
-        <v>44.27999877929688</v>
+        <v>42.04000091552734</v>
       </c>
       <c r="F113">
-        <v>1995800</v>
+        <v>1791300</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>44.47999954223633</v>
+        <v>41.5</v>
       </c>
       <c r="B114">
-        <v>45.18999862670898</v>
+        <v>42.97000122070312</v>
       </c>
       <c r="C114">
-        <v>43.68000030517578</v>
+        <v>40.52000045776367</v>
       </c>
       <c r="D114">
-        <v>44.86999893188477</v>
+        <v>42.77000045776367</v>
       </c>
       <c r="E114">
-        <v>44.86999893188477</v>
+        <v>42.77000045776367</v>
       </c>
       <c r="F114">
-        <v>3753500</v>
+        <v>2044700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>43.61000061035156</v>
+        <v>42.08000183105469</v>
       </c>
       <c r="B115">
-        <v>44.5</v>
+        <v>42.18000030517578</v>
       </c>
       <c r="C115">
-        <v>41.91999816894531</v>
+        <v>39.93000030517578</v>
       </c>
       <c r="D115">
-        <v>42.43999862670898</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="E115">
-        <v>42.43999862670898</v>
+        <v>39.95999908447266</v>
       </c>
       <c r="F115">
-        <v>2796100</v>
+        <v>3545900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>42.72999954223633</v>
+        <v>40.41999816894531</v>
       </c>
       <c r="B116">
-        <v>43.7400016784668</v>
+        <v>40.84000015258789</v>
       </c>
       <c r="C116">
-        <v>42.20000076293945</v>
+        <v>39.31999969482422</v>
       </c>
       <c r="D116">
-        <v>42.2400016784668</v>
+        <v>39.43999862670898</v>
       </c>
       <c r="E116">
-        <v>42.2400016784668</v>
+        <v>39.43999862670898</v>
       </c>
       <c r="F116">
-        <v>1544800</v>
+        <v>2082300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>42.2400016784668</v>
+        <v>39.5099983215332</v>
       </c>
       <c r="B117">
-        <v>43.22999954223633</v>
+        <v>41.09000015258789</v>
       </c>
       <c r="C117">
-        <v>41.91999816894531</v>
+        <v>39.31000137329102</v>
       </c>
       <c r="D117">
-        <v>42.65000152587891</v>
+        <v>40.43999862670898</v>
       </c>
       <c r="E117">
-        <v>42.65000152587891</v>
+        <v>40.43999862670898</v>
       </c>
       <c r="F117">
-        <v>1534100</v>
+        <v>2004600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>42.83000183105469</v>
+        <v>41</v>
       </c>
       <c r="B118">
-        <v>43.34999847412109</v>
+        <v>41</v>
       </c>
       <c r="C118">
-        <v>42.02000045776367</v>
+        <v>39.47999954223633</v>
       </c>
       <c r="D118">
-        <v>43.08000183105469</v>
+        <v>40.56000137329102</v>
       </c>
       <c r="E118">
-        <v>43.08000183105469</v>
+        <v>40.56000137329102</v>
       </c>
       <c r="F118">
-        <v>1774500</v>
+        <v>1912100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>42.93999862670898</v>
+        <v>39.68000030517578</v>
       </c>
       <c r="B119">
-        <v>43.1150016784668</v>
+        <v>39.86999893188477</v>
       </c>
       <c r="C119">
-        <v>41.56999969482422</v>
+        <v>36.61999893188477</v>
       </c>
       <c r="D119">
-        <v>42.04000091552734</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="E119">
-        <v>42.04000091552734</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="F119">
-        <v>1791300</v>
+        <v>4967300</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>41.5</v>
+        <v>36.79000091552734</v>
       </c>
       <c r="B120">
-        <v>42.97000122070312</v>
+        <v>38.97999954223633</v>
       </c>
       <c r="C120">
-        <v>40.52000045776367</v>
+        <v>36.77999877929688</v>
       </c>
       <c r="D120">
-        <v>42.77000045776367</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="E120">
-        <v>42.77000045776367</v>
+        <v>38.0099983215332</v>
       </c>
       <c r="F120">
-        <v>2044700</v>
+        <v>2964100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>42.08000183105469</v>
+        <v>37.5099983215332</v>
       </c>
       <c r="B121">
-        <v>42.18000030517578</v>
+        <v>39.86999893188477</v>
       </c>
       <c r="C121">
-        <v>39.93000030517578</v>
+        <v>37.09999847412109</v>
       </c>
       <c r="D121">
-        <v>39.95999908447266</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="E121">
-        <v>39.95999908447266</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="F121">
-        <v>3545900</v>
+        <v>2486800</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>40.41999816894531</v>
+        <v>40</v>
       </c>
       <c r="B122">
-        <v>40.84000015258789</v>
+        <v>41.08000183105469</v>
       </c>
       <c r="C122">
-        <v>39.31999969482422</v>
+        <v>39.75</v>
       </c>
       <c r="D122">
-        <v>39.43999862670898</v>
+        <v>40.61000061035156</v>
       </c>
       <c r="E122">
-        <v>39.43999862670898</v>
+        <v>40.61000061035156</v>
       </c>
       <c r="F122">
-        <v>2082300</v>
+        <v>2353500</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>39.5099983215332</v>
+        <v>40.5</v>
       </c>
       <c r="B123">
-        <v>41.09000015258789</v>
+        <v>40.98500061035156</v>
       </c>
       <c r="C123">
-        <v>39.31000137329102</v>
+        <v>39.97000122070312</v>
       </c>
       <c r="D123">
-        <v>40.43999862670898</v>
+        <v>40.31000137329102</v>
       </c>
       <c r="E123">
-        <v>40.43999862670898</v>
+        <v>40.31000137329102</v>
       </c>
       <c r="F123">
-        <v>2004600</v>
+        <v>1642300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>41</v>
+        <v>40.13999938964844</v>
       </c>
       <c r="B124">
-        <v>41</v>
+        <v>42.0099983215332</v>
       </c>
       <c r="C124">
-        <v>39.47999954223633</v>
+        <v>40.04299926757812</v>
       </c>
       <c r="D124">
-        <v>40.56000137329102</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="E124">
-        <v>40.56000137329102</v>
+        <v>41.36000061035156</v>
       </c>
       <c r="F124">
-        <v>1912100</v>
+        <v>2159800</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>39.68000030517578</v>
+        <v>41.5</v>
       </c>
       <c r="B125">
-        <v>39.86999893188477</v>
+        <v>42.54999923706055</v>
       </c>
       <c r="C125">
-        <v>36.61999893188477</v>
+        <v>41.1510009765625</v>
       </c>
       <c r="D125">
-        <v>36.97999954223633</v>
+        <v>42.06999969482422</v>
       </c>
       <c r="E125">
-        <v>36.97999954223633</v>
+        <v>42.06999969482422</v>
       </c>
       <c r="F125">
-        <v>4967300</v>
+        <v>1861400</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>36.79000091552734</v>
+        <v>42.33000183105469</v>
       </c>
       <c r="B126">
-        <v>38.97999954223633</v>
+        <v>43.83000183105469</v>
       </c>
       <c r="C126">
-        <v>36.77999877929688</v>
+        <v>42.09000015258789</v>
       </c>
       <c r="D126">
-        <v>38.0099983215332</v>
+        <v>43.79000091552734</v>
       </c>
       <c r="E126">
-        <v>38.0099983215332</v>
+        <v>43.79000091552734</v>
       </c>
       <c r="F126">
-        <v>2964100</v>
+        <v>2183900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>37.5099983215332</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="B127">
-        <v>39.86999893188477</v>
+        <v>45</v>
       </c>
       <c r="C127">
-        <v>37.09999847412109</v>
+        <v>43.72000122070312</v>
       </c>
       <c r="D127">
-        <v>39.59999847412109</v>
+        <v>43.88000106811523</v>
       </c>
       <c r="E127">
-        <v>39.59999847412109</v>
+        <v>43.88000106811523</v>
       </c>
       <c r="F127">
-        <v>2486800</v>
+        <v>1715700</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>40</v>
+        <v>44.22000122070312</v>
       </c>
       <c r="B128">
-        <v>41.08000183105469</v>
+        <v>45.68999862670898</v>
       </c>
       <c r="C128">
-        <v>39.75</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="D128">
-        <v>40.61000061035156</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="E128">
-        <v>40.61000061035156</v>
+        <v>44.88999938964844</v>
       </c>
       <c r="F128">
-        <v>2353500</v>
+        <v>2829000</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>40.5</v>
+        <v>44.38999938964844</v>
       </c>
       <c r="B129">
-        <v>40.98500061035156</v>
+        <v>45.09000015258789</v>
       </c>
       <c r="C129">
-        <v>39.97000122070312</v>
+        <v>44.16999816894531</v>
       </c>
       <c r="D129">
-        <v>40.31000137329102</v>
+        <v>44.66999816894531</v>
       </c>
       <c r="E129">
-        <v>40.31000137329102</v>
+        <v>44.66999816894531</v>
       </c>
       <c r="F129">
-        <v>1642300</v>
+        <v>912327</v>
       </c>
     </row>
   </sheetData>
